--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23761.3233232241</v>
+        <v>11457.30430362571</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20976254.06587323</v>
+        <v>20971934.10134529</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2612033.273498034</v>
+        <v>2617873.340603887</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.21778074906317</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.05698261093605</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.05698261093605</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.692321952271541</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>12.38139028371247</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14.05698261093605</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.05698261093605</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.05698261093605</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>22.1631541270197</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1618,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.692321952271534</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="I14" t="n">
-        <v>22.70940076007145</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.16252739216592</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>11.14544858436602</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.16252739216592</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25.16252739216592</v>
+        <v>2.001771374488207</v>
       </c>
       <c r="H15" t="n">
-        <v>25.16252739216592</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.001771374488266</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.16252739216592</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.16138275253147</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,58 +1858,58 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.89093746228301</v>
+        <v>36.64430940887172</v>
       </c>
       <c r="H17" t="n">
         <v>41.60343938336936</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>41.60343938336936</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21.38211088378789</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>21.97470044617019</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1967,22 +1967,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>13.49692372800077</v>
       </c>
       <c r="R18" t="n">
-        <v>36.6443094088717</v>
+        <v>23.14738568087094</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>41.60343938336936</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>41.60343938336936</v>
       </c>
       <c r="V18" t="n">
-        <v>41.60343938336936</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.89093746228301</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>41.60343938336936</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.60343938336936</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>21.38211088378789</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.97470044617019</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>36.64430940887176</v>
       </c>
     </row>
     <row r="21">
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>36.6443094088717</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>41.60343938336936</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>41.60343938336936</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>41.60343938336936</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>23.147385680871</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>13.49692372800077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>53.05253676699684</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="V23" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>53.05253676699668</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>58.31459283660652</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>60.2322170379165</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>54.97016096830681</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>15.3748212697451</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>37.67771549725173</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>60.23221703791651</v>
@@ -2633,62 +2633,62 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>48.99181262270177</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>9.322780213904764</v>
+      </c>
+      <c r="R27" t="n">
+        <v>54.97016096830682</v>
+      </c>
+      <c r="S27" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="T27" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>53.05253676699683</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="C30" t="n">
-        <v>53.05253676699684</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>26.9910674438428</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>22.000745178859</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2915,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9.322780213904736</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>54.97016096830681</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>53.05253676699684</v>
+      </c>
+      <c r="U32" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="C32" t="n">
+      <c r="V32" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="D32" t="n">
+      <c r="W32" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,70 +3113,70 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>58.31459283660654</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>54.97016096830681</v>
+      </c>
+      <c r="S33" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="E33" t="n">
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>60.23221703791651</v>
-      </c>
-      <c r="F33" t="n">
-        <v>60.23221703791651</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>53.05253676699684</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="C35" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>43.72975655309212</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>9.322780213904736</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="W36" t="n">
-        <v>53.05253676699684</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="X36" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>15.3748212697451</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="Y38" t="n">
-        <v>37.67771549725175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>58.31459283660651</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>22.000745178859</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3626,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.322780213904736</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>54.97016096830681</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>60.23221703791652</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="V39" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>21.7290113742331</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>15.3748212697451</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>37.67771549725173</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>53.05253676699683</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>60.23221703791651</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.87322908120045</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>72.87322908120045</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>12.086575611152</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>10.14756620651588</v>
+        <v>15.3748212697451</v>
       </c>
       <c r="R44" t="n">
-        <v>41.95259835705348</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>37.67771549725174</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.87322908120045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.87322908120045</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>72.87322908120045</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>22.000745178859</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>9.322780213904736</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>21.72901137423312</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="W45" t="n">
-        <v>64.18674017472135</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>72.87322908120045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.356495367722369</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="C11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="D11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="E11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="F11" t="n">
-        <v>1.124558608874884</v>
+        <v>27.42969652689437</v>
       </c>
       <c r="G11" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H11" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I11" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J11" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K11" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L11" t="n">
-        <v>1.124558608874884</v>
+        <v>12.31050202731656</v>
       </c>
       <c r="M11" t="n">
-        <v>15.04097139370157</v>
+        <v>37.22140414556078</v>
       </c>
       <c r="N11" t="n">
-        <v>28.95738417852826</v>
+        <v>62.13230626380501</v>
       </c>
       <c r="O11" t="n">
-        <v>42.87379696335495</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="P11" t="n">
-        <v>42.87379696335495</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.52250327743256</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="R11" t="n">
-        <v>15.32353094315372</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="S11" t="n">
-        <v>1.124558608874884</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="T11" t="n">
-        <v>1.124558608874884</v>
+        <v>61.62651404652813</v>
       </c>
       <c r="U11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="V11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="W11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="X11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.124558608874884</v>
+        <v>52.84639086241546</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.22793044374419</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="C12" t="n">
-        <v>56.22793044374419</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="D12" t="n">
-        <v>56.22793044374419</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="E12" t="n">
-        <v>56.22793044374419</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="F12" t="n">
-        <v>56.22793044374419</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G12" t="n">
-        <v>43.72147561171139</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H12" t="n">
-        <v>29.52250327743256</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I12" t="n">
-        <v>15.32353094315372</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J12" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K12" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L12" t="n">
-        <v>15.04097139370157</v>
+        <v>26.9239043096175</v>
       </c>
       <c r="M12" t="n">
-        <v>28.95738417852826</v>
+        <v>51.83480642786172</v>
       </c>
       <c r="N12" t="n">
-        <v>30.29757578563332</v>
+        <v>76.74570854610594</v>
       </c>
       <c r="O12" t="n">
-        <v>44.21398857046</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="P12" t="n">
-        <v>56.22793044374419</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.22793044374419</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="R12" t="n">
-        <v>56.22793044374419</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="S12" t="n">
-        <v>56.22793044374419</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="T12" t="n">
-        <v>56.22793044374419</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="U12" t="n">
-        <v>56.22793044374419</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="V12" t="n">
-        <v>56.22793044374419</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="W12" t="n">
-        <v>56.22793044374419</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="X12" t="n">
-        <v>56.22793044374419</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="Y12" t="n">
-        <v>56.22793044374419</v>
+        <v>2.013002191373271</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="C13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="D13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="E13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="F13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="M13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="N13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="O13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="P13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="R13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="S13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="T13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="U13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="V13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="W13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="X13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.124558608874884</v>
+        <v>2.013002191373271</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61.62651404652821</v>
+        <v>36.20981971100703</v>
       </c>
       <c r="C14" t="n">
-        <v>61.62651404652821</v>
+        <v>36.20981971100703</v>
       </c>
       <c r="D14" t="n">
-        <v>61.62651404652821</v>
+        <v>36.20981971100703</v>
       </c>
       <c r="E14" t="n">
-        <v>61.62651404652821</v>
+        <v>36.20981971100703</v>
       </c>
       <c r="F14" t="n">
-        <v>61.62651404652821</v>
+        <v>27.42969652689437</v>
       </c>
       <c r="G14" t="n">
-        <v>61.62651404652821</v>
+        <v>27.42969652689437</v>
       </c>
       <c r="H14" t="n">
-        <v>61.62651404652821</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I14" t="n">
-        <v>38.68772539999139</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J14" t="n">
-        <v>13.27103106447027</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K14" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L14" t="n">
-        <v>12.31050202731659</v>
+        <v>12.31050202731656</v>
       </c>
       <c r="M14" t="n">
-        <v>37.22140414556084</v>
+        <v>37.22140414556078</v>
       </c>
       <c r="N14" t="n">
-        <v>62.13230626380509</v>
+        <v>62.13230626380501</v>
       </c>
       <c r="O14" t="n">
-        <v>87.04320838204934</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="P14" t="n">
-        <v>87.04320838204934</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="Q14" t="n">
-        <v>61.62651404652821</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="R14" t="n">
-        <v>61.62651404652821</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="S14" t="n">
-        <v>61.62651404652821</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="T14" t="n">
-        <v>61.62651404652821</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="U14" t="n">
-        <v>61.62651404652821</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="V14" t="n">
-        <v>61.62651404652821</v>
+        <v>61.62651404652813</v>
       </c>
       <c r="W14" t="n">
-        <v>61.62651404652821</v>
+        <v>36.20981971100703</v>
       </c>
       <c r="X14" t="n">
-        <v>61.62651404652821</v>
+        <v>36.20981971100703</v>
       </c>
       <c r="Y14" t="n">
-        <v>61.62651404652821</v>
+        <v>36.20981971100703</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.28507648529855</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="C15" t="n">
-        <v>80.28507648529855</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="D15" t="n">
-        <v>80.28507648529855</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="E15" t="n">
-        <v>80.28507648529855</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="F15" t="n">
-        <v>80.28507648529855</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="G15" t="n">
-        <v>54.86838214977742</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H15" t="n">
-        <v>29.45168781425629</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I15" t="n">
-        <v>27.4296965268944</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J15" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K15" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L15" t="n">
-        <v>26.92390430961753</v>
+        <v>26.9239043096175</v>
       </c>
       <c r="M15" t="n">
-        <v>32.14737270023717</v>
+        <v>51.83480642786172</v>
       </c>
       <c r="N15" t="n">
-        <v>57.05827481848142</v>
+        <v>76.74570854610594</v>
       </c>
       <c r="O15" t="n">
-        <v>81.96917693672567</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="P15" t="n">
-        <v>100.6501095686637</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.28507648529855</v>
+        <v>80.28507648529839</v>
       </c>
       <c r="R15" t="n">
-        <v>80.28507648529855</v>
+        <v>54.86838214977729</v>
       </c>
       <c r="S15" t="n">
-        <v>80.28507648529855</v>
+        <v>29.45168781425619</v>
       </c>
       <c r="T15" t="n">
-        <v>80.28507648529855</v>
+        <v>29.45168781425619</v>
       </c>
       <c r="U15" t="n">
-        <v>80.28507648529855</v>
+        <v>29.45168781425619</v>
       </c>
       <c r="V15" t="n">
-        <v>80.28507648529855</v>
+        <v>29.45168781425619</v>
       </c>
       <c r="W15" t="n">
-        <v>80.28507648529855</v>
+        <v>29.45168781425619</v>
       </c>
       <c r="X15" t="n">
-        <v>80.28507648529855</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="Y15" t="n">
-        <v>80.28507648529855</v>
+        <v>4.034993478735096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="C16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="D16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="E16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="F16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="M16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="N16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="O16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="P16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="R16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="S16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="T16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="U16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="V16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="W16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="X16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.013002191373273</v>
+        <v>2.013002191373271</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.2170904161338</v>
+        <v>124.3900813886599</v>
       </c>
       <c r="C17" t="n">
-        <v>144.2170904161338</v>
+        <v>82.36640524384237</v>
       </c>
       <c r="D17" t="n">
-        <v>144.2170904161338</v>
+        <v>82.36640524384237</v>
       </c>
       <c r="E17" t="n">
-        <v>144.2170904161338</v>
+        <v>82.36640524384237</v>
       </c>
       <c r="F17" t="n">
-        <v>144.2170904161338</v>
+        <v>82.36640524384237</v>
       </c>
       <c r="G17" t="n">
-        <v>108.9737192421106</v>
+        <v>45.35195129548709</v>
       </c>
       <c r="H17" t="n">
-        <v>66.95004309729305</v>
+        <v>3.328275150669549</v>
       </c>
       <c r="I17" t="n">
-        <v>24.9263669524755</v>
+        <v>3.328275150669549</v>
       </c>
       <c r="J17" t="n">
         <v>3.328275150669549</v>
       </c>
       <c r="K17" t="n">
-        <v>4.582532950947757</v>
+        <v>4.582532950947751</v>
       </c>
       <c r="L17" t="n">
-        <v>30.12469586891476</v>
+        <v>30.12469586891479</v>
       </c>
       <c r="M17" t="n">
-        <v>71.31210085845044</v>
+        <v>71.31210085845046</v>
       </c>
       <c r="N17" t="n">
         <v>112.4995058479861</v>
@@ -5536,31 +5536,31 @@
         <v>166.4137575334775</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="R17" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="S17" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="T17" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="U17" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="V17" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="W17" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="X17" t="n">
-        <v>144.2170904161338</v>
+        <v>124.3900813886599</v>
       </c>
       <c r="Y17" t="n">
-        <v>144.2170904161338</v>
+        <v>124.3900813886599</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.328275150669549</v>
+        <v>45.35195129548709</v>
       </c>
       <c r="C18" t="n">
         <v>3.328275150669549</v>
@@ -5600,22 +5600,22 @@
         <v>3.328275150669549</v>
       </c>
       <c r="L18" t="n">
-        <v>44.51568014020522</v>
+        <v>14.30063862864721</v>
       </c>
       <c r="M18" t="n">
-        <v>84.03894755440609</v>
+        <v>55.48804361818288</v>
       </c>
       <c r="N18" t="n">
-        <v>125.2263525439418</v>
+        <v>96.67544860771855</v>
       </c>
       <c r="O18" t="n">
-        <v>166.4137575334775</v>
+        <v>137.8628535972542</v>
       </c>
       <c r="P18" t="n">
         <v>166.4137575334775</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.4137575334775</v>
+        <v>152.7805012425676</v>
       </c>
       <c r="R18" t="n">
         <v>129.3993035851222</v>
@@ -5624,22 +5624,22 @@
         <v>129.3993035851222</v>
       </c>
       <c r="T18" t="n">
+        <v>129.3993035851222</v>
+      </c>
+      <c r="U18" t="n">
         <v>87.37562744030464</v>
       </c>
-      <c r="U18" t="n">
-        <v>45.35195129548709</v>
-      </c>
       <c r="V18" t="n">
-        <v>3.328275150669549</v>
+        <v>87.37562744030464</v>
       </c>
       <c r="W18" t="n">
-        <v>3.328275150669549</v>
+        <v>87.37562744030464</v>
       </c>
       <c r="X18" t="n">
-        <v>3.328275150669549</v>
+        <v>87.37562744030464</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.328275150669549</v>
+        <v>87.37562744030464</v>
       </c>
     </row>
     <row r="19">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.2170904161338</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="C20" t="n">
-        <v>108.9737192421106</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="D20" t="n">
-        <v>108.9737192421106</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="E20" t="n">
-        <v>108.9737192421106</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="F20" t="n">
-        <v>108.9737192421106</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="G20" t="n">
-        <v>108.9737192421106</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="H20" t="n">
-        <v>66.95004309729305</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="I20" t="n">
-        <v>24.9263669524755</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="J20" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="K20" t="n">
-        <v>4.582532950947751</v>
+        <v>4.582532950947805</v>
       </c>
       <c r="L20" t="n">
-        <v>30.1246958689148</v>
+        <v>30.12469586891481</v>
       </c>
       <c r="M20" t="n">
-        <v>71.31210085845046</v>
+        <v>71.31210085845052</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4995058479861</v>
+        <v>112.4995058479862</v>
       </c>
       <c r="O20" t="n">
-        <v>153.6869108375218</v>
+        <v>153.6869108375219</v>
       </c>
       <c r="P20" t="n">
         <v>166.4137575334775</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="R20" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="S20" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="T20" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="U20" t="n">
-        <v>144.2170904161338</v>
+        <v>166.4137575334775</v>
       </c>
       <c r="V20" t="n">
-        <v>144.2170904161338</v>
+        <v>124.39008138866</v>
       </c>
       <c r="W20" t="n">
-        <v>144.2170904161338</v>
+        <v>82.36640524384242</v>
       </c>
       <c r="X20" t="n">
-        <v>144.2170904161338</v>
+        <v>40.34272909902486</v>
       </c>
       <c r="Y20" t="n">
-        <v>144.2170904161338</v>
+        <v>3.328275150669551</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>26.709472808115</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26.709472808115</v>
+      </c>
+      <c r="D21" t="n">
+        <v>26.709472808115</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26.709472808115</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26.709472808115</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26.709472808115</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.328275150669551</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.328275150669551</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.328275150669551</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.67461015709774</v>
+      </c>
+      <c r="L21" t="n">
+        <v>52.86201514663342</v>
+      </c>
+      <c r="M21" t="n">
+        <v>94.04942013616912</v>
+      </c>
+      <c r="N21" t="n">
+        <v>135.2368251257048</v>
+      </c>
+      <c r="O21" t="n">
         <v>166.4137575334775</v>
-      </c>
-      <c r="C21" t="n">
-        <v>166.4137575334775</v>
-      </c>
-      <c r="D21" t="n">
-        <v>129.3993035851222</v>
-      </c>
-      <c r="E21" t="n">
-        <v>87.37562744030464</v>
-      </c>
-      <c r="F21" t="n">
-        <v>45.35195129548709</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.328275150669549</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.328275150669549</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.328275150669549</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.328275150669549</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.67461015709773</v>
-      </c>
-      <c r="L21" t="n">
-        <v>52.8620151466334</v>
-      </c>
-      <c r="M21" t="n">
-        <v>94.04942013616908</v>
-      </c>
-      <c r="N21" t="n">
-        <v>135.2368251257047</v>
-      </c>
-      <c r="O21" t="n">
-        <v>137.8628535972542</v>
       </c>
       <c r="P21" t="n">
         <v>166.4137575334775</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.4137575334775</v>
+        <v>152.7805012425677</v>
       </c>
       <c r="R21" t="n">
-        <v>166.4137575334775</v>
+        <v>110.7568250977501</v>
       </c>
       <c r="S21" t="n">
-        <v>166.4137575334775</v>
+        <v>110.7568250977501</v>
       </c>
       <c r="T21" t="n">
-        <v>166.4137575334775</v>
+        <v>110.7568250977501</v>
       </c>
       <c r="U21" t="n">
-        <v>166.4137575334775</v>
+        <v>110.7568250977501</v>
       </c>
       <c r="V21" t="n">
-        <v>166.4137575334775</v>
+        <v>110.7568250977501</v>
       </c>
       <c r="W21" t="n">
-        <v>166.4137575334775</v>
+        <v>68.73314895293257</v>
       </c>
       <c r="X21" t="n">
-        <v>166.4137575334775</v>
+        <v>26.709472808115</v>
       </c>
       <c r="Y21" t="n">
-        <v>166.4137575334775</v>
+        <v>26.709472808115</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="C22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="D22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="E22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="F22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="G22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="H22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="I22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="J22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="K22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="L22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="M22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="N22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="O22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="P22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="R22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="S22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="T22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="U22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="V22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="W22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="X22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.328275150669549</v>
+        <v>3.328275150669551</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365603</v>
       </c>
       <c r="C23" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365603</v>
       </c>
       <c r="D23" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365603</v>
       </c>
       <c r="E23" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365603</v>
       </c>
       <c r="F23" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="G23" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="H23" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="I23" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="J23" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="K23" t="n">
-        <v>13.76932287133946</v>
+        <v>13.76932287133945</v>
       </c>
       <c r="L23" t="n">
-        <v>48.85965936111248</v>
+        <v>48.85965936111243</v>
       </c>
       <c r="M23" t="n">
         <v>108.4895542286498</v>
@@ -6004,37 +6004,37 @@
         <v>168.1194490961871</v>
       </c>
       <c r="O23" t="n">
-        <v>219.5012987724242</v>
+        <v>219.5012987724241</v>
       </c>
       <c r="P23" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516658</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516658</v>
       </c>
       <c r="R23" t="n">
-        <v>180.0882448810433</v>
+        <v>240.9288681516658</v>
       </c>
       <c r="S23" t="n">
-        <v>119.2476216104205</v>
+        <v>240.9288681516658</v>
       </c>
       <c r="T23" t="n">
-        <v>119.2476216104205</v>
+        <v>240.9288681516658</v>
       </c>
       <c r="U23" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810431</v>
       </c>
       <c r="V23" t="n">
-        <v>58.40699833979781</v>
+        <v>119.2476216104204</v>
       </c>
       <c r="W23" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365603</v>
       </c>
       <c r="X23" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365603</v>
       </c>
       <c r="Y23" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365603</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>185.4034530321642</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="C24" t="n">
-        <v>185.4034530321642</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="D24" t="n">
-        <v>185.4034530321642</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="E24" t="n">
-        <v>124.5628297615414</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="F24" t="n">
-        <v>65.65920063365604</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="G24" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="H24" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="I24" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="J24" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="K24" t="n">
-        <v>18.39246347380759</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="L24" t="n">
-        <v>66.75388022218293</v>
+        <v>53.17999411140863</v>
       </c>
       <c r="M24" t="n">
-        <v>87.63282518642697</v>
+        <v>112.8098889789459</v>
       </c>
       <c r="N24" t="n">
-        <v>147.2627200539643</v>
+        <v>172.4397838464833</v>
       </c>
       <c r="O24" t="n">
-        <v>206.1961156134105</v>
+        <v>231.3731794059295</v>
       </c>
       <c r="P24" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516659</v>
       </c>
       <c r="Q24" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516659</v>
       </c>
       <c r="R24" t="n">
-        <v>185.4034530321642</v>
+        <v>240.9288681516659</v>
       </c>
       <c r="S24" t="n">
-        <v>185.4034530321642</v>
+        <v>180.0882448810432</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4034530321642</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="U24" t="n">
-        <v>185.4034530321642</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="V24" t="n">
-        <v>185.4034530321642</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="W24" t="n">
-        <v>185.4034530321642</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="X24" t="n">
-        <v>185.4034530321642</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="Y24" t="n">
-        <v>185.4034530321642</v>
+        <v>58.40699833979781</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="C25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="D25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="E25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="F25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="G25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="H25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="I25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="J25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="K25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="L25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="M25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="N25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="O25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="P25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="R25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="S25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="T25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="U25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="V25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="W25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="X25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033319</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>65.65920063365607</v>
       </c>
       <c r="E26" t="n">
-        <v>4.818577363033321</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="F26" t="n">
-        <v>4.818577363033321</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="G26" t="n">
         <v>4.818577363033321</v>
@@ -6229,10 +6229,10 @@
         <v>4.818577363033321</v>
       </c>
       <c r="K26" t="n">
-        <v>13.76932287133947</v>
+        <v>13.76932287133951</v>
       </c>
       <c r="L26" t="n">
-        <v>48.85965936111253</v>
+        <v>48.85965936111251</v>
       </c>
       <c r="M26" t="n">
         <v>108.4895542286499</v>
@@ -6247,25 +6247,25 @@
         <v>240.9288681516661</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.9288681516661</v>
+        <v>225.398745656974</v>
       </c>
       <c r="R26" t="n">
-        <v>240.9288681516661</v>
+        <v>225.398745656974</v>
       </c>
       <c r="S26" t="n">
-        <v>240.9288681516661</v>
+        <v>225.398745656974</v>
       </c>
       <c r="T26" t="n">
-        <v>240.9288681516661</v>
+        <v>164.5581223863513</v>
       </c>
       <c r="U26" t="n">
-        <v>240.9288681516661</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="V26" t="n">
-        <v>240.9288681516661</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="W26" t="n">
-        <v>187.3404471749016</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="X26" t="n">
         <v>126.4998239042788</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.65920063365607</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="C27" t="n">
-        <v>65.65920063365607</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="D27" t="n">
-        <v>4.818577363033321</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="E27" t="n">
-        <v>4.818577363033321</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="F27" t="n">
-        <v>4.818577363033321</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="G27" t="n">
         <v>4.818577363033321</v>
@@ -6308,13 +6308,13 @@
         <v>4.818577363033321</v>
       </c>
       <c r="K27" t="n">
-        <v>18.39246347380759</v>
+        <v>18.39246347380758</v>
       </c>
       <c r="L27" t="n">
-        <v>66.75388022218293</v>
+        <v>66.75388022218289</v>
       </c>
       <c r="M27" t="n">
-        <v>126.3837750897203</v>
+        <v>87.63282518642707</v>
       </c>
       <c r="N27" t="n">
         <v>147.2627200539644</v>
@@ -6326,31 +6326,31 @@
         <v>240.9288681516661</v>
       </c>
       <c r="Q27" t="n">
-        <v>240.9288681516661</v>
+        <v>231.5119184406511</v>
       </c>
       <c r="R27" t="n">
-        <v>240.9288681516661</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="S27" t="n">
-        <v>240.9288681516661</v>
+        <v>115.1458800505265</v>
       </c>
       <c r="T27" t="n">
-        <v>240.9288681516661</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="U27" t="n">
-        <v>240.9288681516661</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="V27" t="n">
-        <v>240.9288681516661</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="W27" t="n">
-        <v>187.3404471749016</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="X27" t="n">
-        <v>126.4998239042788</v>
+        <v>54.3052567799038</v>
       </c>
       <c r="Y27" t="n">
-        <v>126.4998239042788</v>
+        <v>54.3052567799038</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="L28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="M28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="N28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="O28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="P28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="R28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="S28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="T28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="U28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="V28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="W28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y28" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>119.2476216104206</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="C29" t="n">
+        <v>180.0882448810433</v>
+      </c>
+      <c r="D29" t="n">
+        <v>180.0882448810433</v>
+      </c>
+      <c r="E29" t="n">
+        <v>126.4998239042788</v>
+      </c>
+      <c r="F29" t="n">
+        <v>126.4998239042788</v>
+      </c>
+      <c r="G29" t="n">
         <v>65.65920063365607</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4.818577363033321</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.818577363033321</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4.818577363033321</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.818577363033321</v>
       </c>
       <c r="H29" t="n">
         <v>4.818577363033321</v>
@@ -6490,25 +6490,25 @@
         <v>240.9288681516661</v>
       </c>
       <c r="S29" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="T29" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="U29" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="V29" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="W29" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="X29" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="Y29" t="n">
         <v>180.0882448810433</v>
-      </c>
-      <c r="T29" t="n">
-        <v>180.0882448810433</v>
-      </c>
-      <c r="U29" t="n">
-        <v>180.0882448810433</v>
-      </c>
-      <c r="V29" t="n">
-        <v>180.0882448810433</v>
-      </c>
-      <c r="W29" t="n">
-        <v>180.0882448810433</v>
-      </c>
-      <c r="X29" t="n">
-        <v>180.0882448810433</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>119.2476216104206</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>58.40699833979781</v>
+        <v>115.1458800505266</v>
       </c>
       <c r="C30" t="n">
-        <v>4.818577363033321</v>
+        <v>54.30525677990383</v>
       </c>
       <c r="D30" t="n">
-        <v>4.818577363033321</v>
+        <v>54.30525677990383</v>
       </c>
       <c r="E30" t="n">
-        <v>4.818577363033321</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="F30" t="n">
-        <v>4.818577363033321</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="G30" t="n">
-        <v>4.818577363033321</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="H30" t="n">
-        <v>4.818577363033321</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="I30" t="n">
-        <v>4.818577363033321</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="J30" t="n">
         <v>4.818577363033321</v>
       </c>
       <c r="K30" t="n">
-        <v>18.39246347380759</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="L30" t="n">
-        <v>66.75388022218293</v>
+        <v>28.00293031888967</v>
       </c>
       <c r="M30" t="n">
         <v>87.63282518642701</v>
@@ -6563,31 +6563,31 @@
         <v>240.9288681516661</v>
       </c>
       <c r="Q30" t="n">
-        <v>240.9288681516661</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="R30" t="n">
-        <v>240.9288681516661</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="S30" t="n">
-        <v>240.9288681516661</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="T30" t="n">
-        <v>240.9288681516661</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="U30" t="n">
-        <v>240.9288681516661</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="V30" t="n">
-        <v>180.0882448810433</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="W30" t="n">
-        <v>119.2476216104206</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="X30" t="n">
-        <v>119.2476216104206</v>
+        <v>175.9865033211493</v>
       </c>
       <c r="Y30" t="n">
-        <v>58.40699833979781</v>
+        <v>175.9865033211493</v>
       </c>
     </row>
     <row r="31">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C32" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D32" t="n">
         <v>4.818577363033321</v>
@@ -6730,22 +6730,22 @@
         <v>240.9288681516661</v>
       </c>
       <c r="T32" t="n">
-        <v>240.9288681516661</v>
+        <v>187.3404471749016</v>
       </c>
       <c r="U32" t="n">
-        <v>240.9288681516661</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="V32" t="n">
-        <v>240.9288681516661</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="W32" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X32" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y32" t="n">
-        <v>187.3404471749016</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>187.3404471749016</v>
+        <v>63.72220649091872</v>
       </c>
       <c r="C33" t="n">
-        <v>187.3404471749016</v>
+        <v>63.72220649091872</v>
       </c>
       <c r="D33" t="n">
-        <v>126.4998239042788</v>
+        <v>63.72220649091872</v>
       </c>
       <c r="E33" t="n">
-        <v>65.65920063365607</v>
+        <v>63.72220649091872</v>
       </c>
       <c r="F33" t="n">
         <v>4.818577363033321</v>
@@ -6788,13 +6788,13 @@
         <v>66.75388022218293</v>
       </c>
       <c r="M33" t="n">
-        <v>87.63282518642701</v>
+        <v>126.3837750897203</v>
       </c>
       <c r="N33" t="n">
-        <v>147.2627200539644</v>
+        <v>181.9954725922198</v>
       </c>
       <c r="O33" t="n">
-        <v>206.1961156134106</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="P33" t="n">
         <v>240.9288681516661</v>
@@ -6803,28 +6803,28 @@
         <v>240.9288681516661</v>
       </c>
       <c r="R33" t="n">
-        <v>240.9288681516661</v>
+        <v>185.4034530321642</v>
       </c>
       <c r="S33" t="n">
-        <v>187.3404471749016</v>
+        <v>124.5628297615415</v>
       </c>
       <c r="T33" t="n">
-        <v>187.3404471749016</v>
+        <v>124.5628297615415</v>
       </c>
       <c r="U33" t="n">
-        <v>187.3404471749016</v>
+        <v>124.5628297615415</v>
       </c>
       <c r="V33" t="n">
-        <v>187.3404471749016</v>
+        <v>124.5628297615415</v>
       </c>
       <c r="W33" t="n">
-        <v>187.3404471749016</v>
+        <v>124.5628297615415</v>
       </c>
       <c r="X33" t="n">
-        <v>187.3404471749016</v>
+        <v>124.5628297615415</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.3404471749016</v>
+        <v>63.72220649091872</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="L34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="M34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="N34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="O34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="P34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="R34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="S34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="T34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="U34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="V34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="W34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y34" t="n">
-        <v>240.9288681516661</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.818577363033321</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13.76932287133947</v>
+      </c>
+      <c r="L35" t="n">
+        <v>48.8596593611125</v>
+      </c>
+      <c r="M35" t="n">
+        <v>108.4895542286499</v>
+      </c>
+      <c r="N35" t="n">
+        <v>168.1194490961872</v>
+      </c>
+      <c r="O35" t="n">
+        <v>219.5012987724243</v>
+      </c>
+      <c r="P35" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="R35" t="n">
         <v>180.0882448810433</v>
       </c>
-      <c r="D35" t="n">
-        <v>119.2476216104205</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="S35" t="n">
+        <v>180.0882448810433</v>
+      </c>
+      <c r="T35" t="n">
+        <v>180.0882448810433</v>
+      </c>
+      <c r="U35" t="n">
+        <v>180.0882448810433</v>
+      </c>
+      <c r="V35" t="n">
+        <v>180.0882448810433</v>
+      </c>
+      <c r="W35" t="n">
+        <v>180.0882448810433</v>
+      </c>
+      <c r="X35" t="n">
+        <v>119.2476216104206</v>
+      </c>
+      <c r="Y35" t="n">
         <v>58.40699833979781</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4.81857736303332</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4.81857736303332</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4.81857736303332</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.81857736303332</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.81857736303332</v>
-      </c>
-      <c r="K35" t="n">
-        <v>13.76932287133946</v>
-      </c>
-      <c r="L35" t="n">
-        <v>48.85965936111248</v>
-      </c>
-      <c r="M35" t="n">
-        <v>108.4895542286498</v>
-      </c>
-      <c r="N35" t="n">
-        <v>168.1194490961871</v>
-      </c>
-      <c r="O35" t="n">
-        <v>219.5012987724242</v>
-      </c>
-      <c r="P35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="R35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="S35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="T35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="U35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="V35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="W35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="X35" t="n">
-        <v>240.928868151666</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>240.928868151666</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.81857736303332</v>
+        <v>48.99004862878294</v>
       </c>
       <c r="C36" t="n">
-        <v>4.81857736303332</v>
+        <v>48.99004862878294</v>
       </c>
       <c r="D36" t="n">
-        <v>4.81857736303332</v>
+        <v>48.99004862878294</v>
       </c>
       <c r="E36" t="n">
-        <v>4.81857736303332</v>
+        <v>48.99004862878294</v>
       </c>
       <c r="F36" t="n">
-        <v>4.81857736303332</v>
+        <v>48.99004862878294</v>
       </c>
       <c r="G36" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H36" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I36" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J36" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K36" t="n">
         <v>18.39246347380759</v>
@@ -7028,40 +7028,40 @@
         <v>126.3837750897203</v>
       </c>
       <c r="N36" t="n">
-        <v>186.0136699572576</v>
+        <v>181.9954725922198</v>
       </c>
       <c r="O36" t="n">
-        <v>206.1961156134105</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="P36" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q36" t="n">
-        <v>240.928868151666</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="R36" t="n">
-        <v>240.928868151666</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="S36" t="n">
-        <v>240.928868151666</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="T36" t="n">
-        <v>180.0882448810433</v>
+        <v>170.6712951700284</v>
       </c>
       <c r="U36" t="n">
-        <v>180.0882448810433</v>
+        <v>170.6712951700284</v>
       </c>
       <c r="V36" t="n">
-        <v>180.0882448810433</v>
+        <v>109.8306718994057</v>
       </c>
       <c r="W36" t="n">
-        <v>126.4998239042788</v>
+        <v>48.99004862878294</v>
       </c>
       <c r="X36" t="n">
-        <v>65.65920063365604</v>
+        <v>48.99004862878294</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.81857736303332</v>
+        <v>48.99004862878294</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="L37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="M37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="N37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="O37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="P37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="R37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="S37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="T37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="U37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="V37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="W37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y37" t="n">
-        <v>240.928868151666</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>126.4998239042788</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="C38" t="n">
-        <v>126.4998239042788</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="D38" t="n">
-        <v>65.65920063365607</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="E38" t="n">
-        <v>65.65920063365607</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="F38" t="n">
-        <v>4.818577363033322</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="G38" t="n">
-        <v>4.818577363033322</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="H38" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I38" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J38" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K38" t="n">
-        <v>13.76932287133947</v>
+        <v>13.76932287133946</v>
       </c>
       <c r="L38" t="n">
-        <v>48.85965936111252</v>
+        <v>48.85965936111248</v>
       </c>
       <c r="M38" t="n">
-        <v>108.4895542286499</v>
+        <v>108.4895542286498</v>
       </c>
       <c r="N38" t="n">
         <v>168.1194490961872</v>
@@ -7192,34 +7192,34 @@
         <v>219.5012987724243</v>
       </c>
       <c r="P38" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q38" t="n">
-        <v>225.3987456569741</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R38" t="n">
-        <v>225.3987456569741</v>
+        <v>240.928868151666</v>
       </c>
       <c r="S38" t="n">
-        <v>225.3987456569741</v>
+        <v>240.928868151666</v>
       </c>
       <c r="T38" t="n">
-        <v>225.3987456569741</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="U38" t="n">
-        <v>225.3987456569741</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="V38" t="n">
-        <v>225.3987456569741</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="W38" t="n">
-        <v>225.3987456569741</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="X38" t="n">
-        <v>225.3987456569741</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="Y38" t="n">
-        <v>187.3404471749016</v>
+        <v>65.65920063365604</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="C39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="D39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="E39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="F39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="G39" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H39" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I39" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J39" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K39" t="n">
-        <v>4.818577363033322</v>
+        <v>14.37426610876975</v>
       </c>
       <c r="L39" t="n">
-        <v>28.00293031888965</v>
+        <v>62.73568285714509</v>
       </c>
       <c r="M39" t="n">
-        <v>87.632825186427</v>
+        <v>122.3655777246824</v>
       </c>
       <c r="N39" t="n">
-        <v>147.2627200539644</v>
+        <v>181.9954725922198</v>
       </c>
       <c r="O39" t="n">
-        <v>206.1961156134106</v>
+        <v>240.928868151666</v>
       </c>
       <c r="P39" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q39" t="n">
-        <v>231.5119184406512</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R39" t="n">
-        <v>231.5119184406512</v>
+        <v>185.4034530321642</v>
       </c>
       <c r="S39" t="n">
-        <v>231.5119184406512</v>
+        <v>185.4034530321642</v>
       </c>
       <c r="T39" t="n">
-        <v>170.6712951700284</v>
+        <v>185.4034530321642</v>
       </c>
       <c r="U39" t="n">
-        <v>109.8306718994057</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="V39" t="n">
-        <v>48.99004862878292</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="W39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="X39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="Y39" t="n">
-        <v>27.04155229117373</v>
+        <v>63.72220649091869</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="C40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="D40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="L40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="M40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="N40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="O40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="P40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="R40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="S40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="T40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="U40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="V40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="W40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="X40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.818577363033322</v>
+        <v>4.81857736303332</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>187.3404471749016</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="C41" t="n">
-        <v>126.4998239042788</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="D41" t="n">
-        <v>126.4998239042788</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="E41" t="n">
         <v>65.65920063365607</v>
       </c>
       <c r="F41" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G41" t="n">
         <v>4.818577363033321</v>
@@ -7414,10 +7414,10 @@
         <v>4.818577363033321</v>
       </c>
       <c r="K41" t="n">
-        <v>13.76932287133946</v>
+        <v>13.76932287133952</v>
       </c>
       <c r="L41" t="n">
-        <v>48.85965936111253</v>
+        <v>48.85965936111254</v>
       </c>
       <c r="M41" t="n">
         <v>108.4895542286499</v>
@@ -7432,31 +7432,31 @@
         <v>240.9288681516661</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9288681516661</v>
+        <v>225.398745656974</v>
       </c>
       <c r="R41" t="n">
-        <v>240.9288681516661</v>
+        <v>225.398745656974</v>
       </c>
       <c r="S41" t="n">
-        <v>240.9288681516661</v>
+        <v>225.398745656974</v>
       </c>
       <c r="T41" t="n">
-        <v>240.9288681516661</v>
+        <v>164.5581223863513</v>
       </c>
       <c r="U41" t="n">
-        <v>240.9288681516661</v>
+        <v>164.5581223863513</v>
       </c>
       <c r="V41" t="n">
-        <v>240.9288681516661</v>
+        <v>103.7174991157285</v>
       </c>
       <c r="W41" t="n">
-        <v>240.9288681516661</v>
+        <v>103.7174991157285</v>
       </c>
       <c r="X41" t="n">
-        <v>240.9288681516661</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.9288681516661</v>
+        <v>65.65920063365607</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C42" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D42" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E42" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F42" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G42" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H42" t="n">
         <v>4.818577363033321</v>
@@ -7493,13 +7493,13 @@
         <v>4.818577363033321</v>
       </c>
       <c r="K42" t="n">
-        <v>18.39246347380759</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="L42" t="n">
-        <v>66.75388022218293</v>
+        <v>53.17999411140866</v>
       </c>
       <c r="M42" t="n">
-        <v>126.3837750897203</v>
+        <v>87.63282518642701</v>
       </c>
       <c r="N42" t="n">
         <v>147.2627200539644</v>
@@ -7520,7 +7520,7 @@
         <v>180.0882448810433</v>
       </c>
       <c r="T42" t="n">
-        <v>180.0882448810433</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U42" t="n">
         <v>119.2476216104206</v>
@@ -7529,13 +7529,13 @@
         <v>119.2476216104206</v>
       </c>
       <c r="W42" t="n">
-        <v>119.2476216104206</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="X42" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y42" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="43">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.64784286422579</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C44" t="n">
-        <v>18.03852055998291</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D44" t="n">
-        <v>18.03852055998291</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E44" t="n">
-        <v>18.03852055998291</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F44" t="n">
-        <v>18.03852055998291</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G44" t="n">
-        <v>18.03852055998291</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H44" t="n">
-        <v>18.03852055998291</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I44" t="n">
-        <v>18.03852055998291</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J44" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K44" t="n">
-        <v>20.87639790396915</v>
+        <v>13.76932287133947</v>
       </c>
       <c r="L44" t="n">
-        <v>63.52910596352734</v>
+        <v>48.8596593611125</v>
       </c>
       <c r="M44" t="n">
-        <v>131.5735963154557</v>
+        <v>108.4895542286499</v>
       </c>
       <c r="N44" t="n">
-        <v>203.718093105844</v>
+        <v>168.1194490961872</v>
       </c>
       <c r="O44" t="n">
-        <v>263.174175837092</v>
+        <v>219.5012987724243</v>
       </c>
       <c r="P44" t="n">
-        <v>291.4929163248018</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q44" t="n">
-        <v>281.2428494495333</v>
+        <v>225.398745656974</v>
       </c>
       <c r="R44" t="n">
-        <v>238.8664874727116</v>
+        <v>164.5581223863513</v>
       </c>
       <c r="S44" t="n">
-        <v>238.8664874727116</v>
+        <v>164.5581223863513</v>
       </c>
       <c r="T44" t="n">
-        <v>238.8664874727116</v>
+        <v>103.7174991157285</v>
       </c>
       <c r="U44" t="n">
-        <v>238.8664874727116</v>
+        <v>103.7174991157285</v>
       </c>
       <c r="V44" t="n">
-        <v>238.8664874727116</v>
+        <v>42.87687584510579</v>
       </c>
       <c r="W44" t="n">
-        <v>238.8664874727116</v>
+        <v>42.87687584510579</v>
       </c>
       <c r="X44" t="n">
-        <v>238.8664874727116</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.2571651684687</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>79.43918063073892</v>
+        <v>87.88217556179647</v>
       </c>
       <c r="C45" t="n">
-        <v>5.829858326496036</v>
+        <v>87.88217556179647</v>
       </c>
       <c r="D45" t="n">
-        <v>5.829858326496036</v>
+        <v>87.88217556179647</v>
       </c>
       <c r="E45" t="n">
-        <v>5.829858326496036</v>
+        <v>87.88217556179647</v>
       </c>
       <c r="F45" t="n">
-        <v>5.829858326496036</v>
+        <v>87.88217556179647</v>
       </c>
       <c r="G45" t="n">
-        <v>5.829858326496036</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="H45" t="n">
-        <v>5.829858326496036</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="I45" t="n">
-        <v>5.829858326496036</v>
+        <v>27.04155229117373</v>
       </c>
       <c r="J45" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K45" t="n">
-        <v>23.54408432047462</v>
+        <v>18.39246347380759</v>
       </c>
       <c r="L45" t="n">
-        <v>77.47269899149518</v>
+        <v>66.75388022218293</v>
       </c>
       <c r="M45" t="n">
-        <v>149.6171957818836</v>
+        <v>87.63282518642701</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8301325566453</v>
+        <v>147.2627200539644</v>
       </c>
       <c r="O45" t="n">
-        <v>251.8639984869579</v>
+        <v>206.1961156134106</v>
       </c>
       <c r="P45" t="n">
-        <v>291.4929163248018</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q45" t="n">
-        <v>291.4929163248018</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="R45" t="n">
-        <v>291.4929163248018</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="S45" t="n">
-        <v>291.4929163248018</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="T45" t="n">
-        <v>291.4929163248018</v>
+        <v>231.5119184406512</v>
       </c>
       <c r="U45" t="n">
-        <v>291.4929163248018</v>
+        <v>209.5634221030419</v>
       </c>
       <c r="V45" t="n">
-        <v>291.4929163248018</v>
+        <v>148.7227988324192</v>
       </c>
       <c r="W45" t="n">
-        <v>226.6578252392247</v>
+        <v>87.88217556179647</v>
       </c>
       <c r="X45" t="n">
-        <v>226.6578252392247</v>
+        <v>87.88217556179647</v>
       </c>
       <c r="Y45" t="n">
-        <v>153.0485029349818</v>
+        <v>87.88217556179647</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="L46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="M46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="N46" t="n">
-        <v>8.210156677730753</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="O46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="P46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="R46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="S46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="T46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="U46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="V46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="W46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.829858326496036</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
   </sheetData>
@@ -22573,7 +22573,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K2" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L2" t="n">
         <v>21.36627421377045</v>
@@ -22588,7 +22588,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P2" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q2" t="n">
         <v>54.25101662582001</v>
@@ -22670,7 +22670,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R3" t="n">
         <v>66.92938550216252</v>
@@ -22746,7 +22746,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P4" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q4" t="n">
         <v>67.08779846355691</v>
@@ -23047,7 +23047,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K8" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L8" t="n">
         <v>21.36627421377045</v>
@@ -23062,7 +23062,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P8" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q8" t="n">
         <v>54.25101662582001</v>
@@ -23144,7 +23144,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R9" t="n">
         <v>66.92938550216252</v>
@@ -23220,7 +23220,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P10" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q10" t="n">
         <v>67.08779846355691</v>
@@ -23269,22 +23269,22 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>387.5629666931561</v>
       </c>
       <c r="G11" t="n">
-        <v>408.0600196779263</v>
+        <v>382.8315796074289</v>
       </c>
       <c r="H11" t="n">
-        <v>310.8968572673717</v>
+        <v>310.221829050409</v>
       </c>
       <c r="I11" t="n">
-        <v>99.51509381421806</v>
+        <v>96.97399528284214</v>
       </c>
       <c r="J11" t="n">
-        <v>35.25823665176536</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K11" t="n">
-        <v>19.5297884406791</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23299,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10.6548628424849</v>
+        <v>1.176537307564445</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.41214851080591</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R11" t="n">
-        <v>65.07223654062125</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S11" t="n">
-        <v>128.6623069908378</v>
+        <v>141.2173044442944</v>
       </c>
       <c r="T11" t="n">
-        <v>217.0145699250714</v>
+        <v>191.5635097835093</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1175136074313</v>
+        <v>244.4199186408933</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23351,19 +23351,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9582407289089</v>
+        <v>118.3043646206254</v>
       </c>
       <c r="H12" t="n">
-        <v>68.3393263034834</v>
+        <v>82.05570981277423</v>
       </c>
       <c r="I12" t="n">
-        <v>32.74321535648578</v>
+        <v>45.58598227808712</v>
       </c>
       <c r="J12" t="n">
-        <v>19.29773363822322</v>
+        <v>30.02281559133009</v>
       </c>
       <c r="K12" t="n">
-        <v>5.694748921558741</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,28 +23381,28 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.66310675538467</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R12" t="n">
-        <v>62.43159797082158</v>
+        <v>60.2419881239143</v>
       </c>
       <c r="S12" t="n">
-        <v>123.9302374434014</v>
+        <v>98.11265228762625</v>
       </c>
       <c r="T12" t="n">
-        <v>173.1196664523877</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9283284186556</v>
+        <v>182.7634808691216</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>202.6535460158801</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>165.2508527464688</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -23430,49 +23430,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.1359076192082</v>
+        <v>166.1063414608336</v>
       </c>
       <c r="H13" t="n">
-        <v>150.0508344734915</v>
+        <v>149.7879644472162</v>
       </c>
       <c r="I13" t="n">
-        <v>118.663628421446</v>
+        <v>117.7744934041466</v>
       </c>
       <c r="J13" t="n">
-        <v>51.74969795211743</v>
+        <v>49.6593705550383</v>
       </c>
       <c r="K13" t="n">
-        <v>33.24915065526066</v>
+        <v>29.81410061865641</v>
       </c>
       <c r="L13" t="n">
-        <v>22.91234585334672</v>
+        <v>18.51666445282825</v>
       </c>
       <c r="M13" t="n">
-        <v>22.01857942793136</v>
+        <v>17.38394971109511</v>
       </c>
       <c r="N13" t="n">
-        <v>16.33604516765962</v>
+        <v>11.81161658658297</v>
       </c>
       <c r="O13" t="n">
-        <v>28.42585833993629</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P13" t="n">
-        <v>36.83866812193548</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.00221021640779</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R13" t="n">
-        <v>103.0755612772281</v>
+        <v>101.7461592834061</v>
       </c>
       <c r="S13" t="n">
-        <v>193.196502905938</v>
+        <v>192.6812454004474</v>
       </c>
       <c r="T13" t="n">
-        <v>231.5006367779923</v>
+        <v>231.3743086467557</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5606435272995</v>
+        <v>282.5590308277518</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23506,22 +23506,22 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>404.0331721330505</v>
       </c>
       <c r="G14" t="n">
         <v>407.9941069995947</v>
       </c>
       <c r="H14" t="n">
-        <v>310.221829050409</v>
+        <v>285.0593016582432</v>
       </c>
       <c r="I14" t="n">
-        <v>74.26459452277069</v>
+        <v>96.97399528284214</v>
       </c>
       <c r="J14" t="n">
-        <v>4.501453077059594</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23536,13 +23536,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.176537307564416</v>
+        <v>1.176537307564445</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.349574125530239</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R14" t="n">
-        <v>74.98883187131494</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S14" t="n">
         <v>141.2173044442944</v>
@@ -23554,10 +23554,10 @@
         <v>253.1122405931648</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>313.5232138113509</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>342.1265172892295</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23588,16 +23588,16 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>93.14183722845948</v>
+        <v>116.3025932461372</v>
       </c>
       <c r="H15" t="n">
-        <v>56.89318242060831</v>
+        <v>82.05570981277423</v>
       </c>
       <c r="I15" t="n">
-        <v>43.58421090359884</v>
+        <v>45.58598227808712</v>
       </c>
       <c r="J15" t="n">
-        <v>4.860288199164174</v>
+        <v>30.02281559133009</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.24198812391429</v>
+        <v>35.07946073174841</v>
       </c>
       <c r="S15" t="n">
-        <v>123.2751796797921</v>
+        <v>98.11265228762625</v>
       </c>
       <c r="T15" t="n">
         <v>172.9775181442987</v>
@@ -23639,7 +23639,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>162.2514794813226</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -23676,28 +23676,28 @@
         <v>117.7744934041466</v>
       </c>
       <c r="J16" t="n">
-        <v>49.65937055503829</v>
+        <v>49.6593705550383</v>
       </c>
       <c r="K16" t="n">
-        <v>29.8141006186564</v>
+        <v>29.81410061865641</v>
       </c>
       <c r="L16" t="n">
-        <v>18.51666445282824</v>
+        <v>18.51666445282825</v>
       </c>
       <c r="M16" t="n">
-        <v>17.3839497110951</v>
+        <v>17.38394971109511</v>
       </c>
       <c r="N16" t="n">
-        <v>11.81161658658296</v>
+        <v>11.81161658658297</v>
       </c>
       <c r="O16" t="n">
-        <v>24.2468162453257</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P16" t="n">
-        <v>33.26277565816527</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.52644762742798</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R16" t="n">
         <v>101.7461592834061</v>
@@ -23734,7 +23734,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>347.6403070987293</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23746,16 +23746,16 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>373.0055908444245</v>
+        <v>371.2522188978358</v>
       </c>
       <c r="H17" t="n">
         <v>267.6190618785083</v>
       </c>
       <c r="I17" t="n">
-        <v>51.6086533419378</v>
+        <v>93.21209272530716</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>21.38211088378789</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>21.97470044617019</v>
       </c>
       <c r="R17" t="n">
         <v>68.85930430423743</v>
@@ -23797,7 +23797,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>343.9546396329043</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>108.6749317131824</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>107.5442487521393</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -23855,22 +23855,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.49692372800077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.35612834563437</v>
+        <v>33.85305207363513</v>
       </c>
       <c r="S18" t="n">
         <v>122.3054166242366</v>
       </c>
       <c r="T18" t="n">
-        <v>131.1636390329351</v>
+        <v>172.7670784163045</v>
       </c>
       <c r="U18" t="n">
         <v>166.3191340619008</v>
       </c>
       <c r="V18" t="n">
-        <v>178.7111622292743</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -23971,7 +23971,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>354.3528090198157</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23986,13 +23986,13 @@
         <v>407.8965283067075</v>
       </c>
       <c r="H20" t="n">
-        <v>267.6190618785083</v>
+        <v>309.2225012618777</v>
       </c>
       <c r="I20" t="n">
-        <v>51.6086533419378</v>
+        <v>93.21209272530716</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>21.38211088378789</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>21.97470044617019</v>
       </c>
       <c r="R20" t="n">
         <v>68.85930430423743</v>
@@ -24028,16 +24028,16 @@
         <v>253.1044342977338</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>297.0823018201474</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>325.685605298026</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>343.9546396329043</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>355.8814925797331</v>
       </c>
     </row>
     <row r="21">
@@ -24053,19 +24053,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>92.14376829586277</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>93.47858659685178</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>81.58404867233016</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>76.64871603379282</v>
+        <v>118.2521554171622</v>
       </c>
       <c r="H21" t="n">
-        <v>81.55147882143226</v>
+        <v>58.40409314056126</v>
       </c>
       <c r="I21" t="n">
         <v>43.78842856235848</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.49692372800077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.00043775450607</v>
+        <v>15.39699837113669</v>
       </c>
       <c r="S21" t="n">
         <v>122.3054166242366</v>
@@ -24110,10 +24110,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>186.2126340246766</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>145.8105674901191</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -24217,7 +24217,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>359.6729573183252</v>
+        <v>352.4932770474055</v>
       </c>
       <c r="G23" t="n">
         <v>407.8354119480459</v>
@@ -24226,10 +24226,10 @@
         <v>308.5965933537339</v>
       </c>
       <c r="I23" t="n">
-        <v>90.85590430800323</v>
+        <v>90.85590430800325</v>
       </c>
       <c r="J23" t="n">
-        <v>16.19493633782723</v>
+        <v>16.19493633782724</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>15.3748212697451</v>
       </c>
       <c r="R23" t="n">
-        <v>4.787986801539986</v>
+        <v>65.0202038394565</v>
       </c>
       <c r="S23" t="n">
-        <v>77.36882391920734</v>
+        <v>137.6010409571238</v>
       </c>
       <c r="T23" t="n">
         <v>216.0313495875199</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0995449890409</v>
+        <v>192.8673279511244</v>
       </c>
       <c r="V23" t="n">
         <v>278.4535241656003</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>314.2365079143987</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24293,22 +24293,22 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>74.84980894230465</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>64.872895219093</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>57.9872382445146</v>
+        <v>65.16691851543426</v>
       </c>
       <c r="H24" t="n">
         <v>81.23566436231876</v>
       </c>
       <c r="I24" t="n">
-        <v>42.6625686604325</v>
+        <v>42.66256866043251</v>
       </c>
       <c r="J24" t="n">
-        <v>22.000745178859</v>
+        <v>22.00074517885901</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,16 +24329,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.322780213904736</v>
+        <v>9.322780213904764</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>54.97016096830682</v>
       </c>
       <c r="S24" t="n">
-        <v>121.6980259637708</v>
+        <v>61.46580892585433</v>
       </c>
       <c r="T24" t="n">
-        <v>172.6352739258752</v>
+        <v>112.4030568879587</v>
       </c>
       <c r="U24" t="n">
         <v>207.9204221206168</v>
@@ -24347,7 +24347,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X24" t="n">
         <v>187.4140068734885</v>
@@ -24387,25 +24387,25 @@
         <v>115.6337621977075</v>
       </c>
       <c r="J25" t="n">
-        <v>44.62658137956165</v>
+        <v>44.62658137956166</v>
       </c>
       <c r="K25" t="n">
-        <v>21.54368199160336</v>
+        <v>21.54368199160337</v>
       </c>
       <c r="L25" t="n">
-        <v>7.93337601567444</v>
+        <v>7.933376015674455</v>
       </c>
       <c r="M25" t="n">
-        <v>6.225355940650999</v>
+        <v>6.225355940651013</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9183492353166116</v>
+        <v>0.9183492353166258</v>
       </c>
       <c r="O25" t="n">
-        <v>14.18512072001893</v>
+        <v>14.18512072001894</v>
       </c>
       <c r="P25" t="n">
-        <v>24.6532569246509</v>
+        <v>24.65325692465092</v>
       </c>
       <c r="Q25" t="n">
         <v>53.56566312243694</v>
@@ -24451,22 +24451,22 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>338.3254725967043</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.8354119480459</v>
+        <v>347.6031949101293</v>
       </c>
       <c r="H26" t="n">
         <v>308.5965933537339</v>
       </c>
       <c r="I26" t="n">
-        <v>90.85590430800323</v>
+        <v>90.85590430800325</v>
       </c>
       <c r="J26" t="n">
-        <v>16.19493633782723</v>
+        <v>16.19493633782724</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.3748212697451</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.02020383945649</v>
+        <v>65.0202038394565</v>
       </c>
       <c r="S26" t="n">
         <v>137.6010409571238</v>
       </c>
       <c r="T26" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0995449890409</v>
+        <v>215.4218294917891</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>314.2365079143985</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>325.3258619783572</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>332.2935849506883</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.04615405863521</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>68.55586066681795</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -24536,16 +24536,16 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.2194552824311</v>
+        <v>69.22764265972933</v>
       </c>
       <c r="H27" t="n">
         <v>81.23566436231876</v>
       </c>
       <c r="I27" t="n">
-        <v>42.6625686604325</v>
+        <v>42.66256866043251</v>
       </c>
       <c r="J27" t="n">
-        <v>22.000745178859</v>
+        <v>22.00074517885901</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,16 +24566,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.322780213904736</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>54.97016096830681</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>121.6980259637708</v>
+        <v>61.4658089258543</v>
       </c>
       <c r="T27" t="n">
-        <v>172.6352739258752</v>
+        <v>112.4030568879587</v>
       </c>
       <c r="U27" t="n">
         <v>207.9204221206168</v>
@@ -24584,10 +24584,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>174.7635366410492</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>127.1817898355719</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -24624,25 +24624,25 @@
         <v>115.6337621977075</v>
       </c>
       <c r="J28" t="n">
-        <v>44.62658137956165</v>
+        <v>44.62658137956166</v>
       </c>
       <c r="K28" t="n">
-        <v>21.54368199160336</v>
+        <v>21.54368199160337</v>
       </c>
       <c r="L28" t="n">
-        <v>7.93337601567444</v>
+        <v>7.933376015674455</v>
       </c>
       <c r="M28" t="n">
-        <v>6.225355940650999</v>
+        <v>6.225355940651013</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9183492353166116</v>
+        <v>0.9183492353166258</v>
       </c>
       <c r="O28" t="n">
-        <v>14.18512072001893</v>
+        <v>14.18512072001894</v>
       </c>
       <c r="P28" t="n">
-        <v>24.6532569246509</v>
+        <v>24.65325692465092</v>
       </c>
       <c r="Q28" t="n">
         <v>53.56566312243694</v>
@@ -24682,22 +24682,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>336.1912097151019</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>321.3545004575824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>345.5051528676241</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.8354119480459</v>
+        <v>347.6031949101293</v>
       </c>
       <c r="H29" t="n">
-        <v>308.5965933537339</v>
+        <v>248.3643763158174</v>
       </c>
       <c r="I29" t="n">
         <v>90.85590430800323</v>
@@ -24730,7 +24730,7 @@
         <v>65.02020383945649</v>
       </c>
       <c r="S29" t="n">
-        <v>77.36882391920733</v>
+        <v>137.6010409571238</v>
       </c>
       <c r="T29" t="n">
         <v>216.0313495875199</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>90.04615405863521</v>
       </c>
       <c r="C30" t="n">
-        <v>96.09515136851186</v>
+        <v>88.91547109759219</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>108.0909585363784</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
@@ -24782,7 +24782,7 @@
         <v>42.6625686604325</v>
       </c>
       <c r="J30" t="n">
-        <v>22.000745178859</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.322780213904736</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>54.97016096830681</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>121.6980259637708</v>
@@ -24818,16 +24818,16 @@
         <v>207.9204221206168</v>
       </c>
       <c r="V30" t="n">
-        <v>160.0823845747271</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>167.5838563701295</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>117.2888577173313</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>336.2575812163664</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>329.0115294441822</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>321.3545004575824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -24970,22 +24970,22 @@
         <v>137.6010409571238</v>
       </c>
       <c r="T32" t="n">
-        <v>216.0313495875199</v>
+        <v>162.978812820523</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0995449890409</v>
+        <v>192.8673279511244</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>278.4535241656002</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>307.0568276434789</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.473265221608</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25001,13 +25001,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>68.55586066681795</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>74.84980894230463</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>62.95527101778301</v>
+        <v>64.87289521909298</v>
       </c>
       <c r="G33" t="n">
         <v>118.2194552824311</v>
@@ -25043,10 +25043,10 @@
         <v>9.322780213904736</v>
       </c>
       <c r="R33" t="n">
-        <v>54.97016096830681</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>68.64548919677398</v>
+        <v>61.4658089258543</v>
       </c>
       <c r="T33" t="n">
         <v>172.6352739258752</v>
@@ -25064,7 +25064,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>117.2888577173313</v>
       </c>
     </row>
     <row r="34">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>343.437261487286</v>
       </c>
       <c r="C35" t="n">
-        <v>329.0115294441822</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>321.3545004575824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>338.3254725967044</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>359.6729573183252</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>407.8354119480459</v>
@@ -25201,7 +25201,7 @@
         <v>15.3748212697451</v>
       </c>
       <c r="R35" t="n">
-        <v>65.02020383945649</v>
+        <v>4.787986801539972</v>
       </c>
       <c r="S35" t="n">
         <v>137.6010409571238</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>325.3258619783572</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>332.2935849506883</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.2194552824311</v>
+        <v>74.48969872933898</v>
       </c>
       <c r="H36" t="n">
         <v>81.23566436231876</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.322780213904736</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>54.97016096830681</v>
@@ -25292,16 +25292,16 @@
         <v>207.9204221206168</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>160.0823845747271</v>
       </c>
       <c r="W36" t="n">
-        <v>174.7635366410492</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X36" t="n">
-        <v>127.181789835572</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>117.2888577173313</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>336.2575812163664</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>321.3545004575824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>352.4932770474055</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>407.8354119480459</v>
       </c>
       <c r="H38" t="n">
-        <v>308.5965933537339</v>
+        <v>248.3643763158174</v>
       </c>
       <c r="I38" t="n">
         <v>90.85590430800323</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>15.3748212697451</v>
       </c>
       <c r="R38" t="n">
         <v>65.02020383945649</v>
@@ -25444,22 +25444,22 @@
         <v>137.6010409571238</v>
       </c>
       <c r="T38" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496034</v>
       </c>
       <c r="U38" t="n">
         <v>253.0995449890409</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>278.4535241656003</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>332.5055422492769</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.8480864913531</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.2194552824311</v>
+        <v>59.90486244582458</v>
       </c>
       <c r="H39" t="n">
         <v>81.23566436231876</v>
@@ -25493,7 +25493,7 @@
         <v>42.6625686604325</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>22.000745178859</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>9.322780213904736</v>
       </c>
       <c r="R39" t="n">
-        <v>54.97016096830681</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>121.6980259637708</v>
       </c>
       <c r="T39" t="n">
-        <v>112.4030568879587</v>
+        <v>172.6352739258752</v>
       </c>
       <c r="U39" t="n">
         <v>147.6882050827003</v>
       </c>
       <c r="V39" t="n">
-        <v>160.0823845747271</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>206.0870620338129</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.437261487286</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>329.0115294441822</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>338.3254725967043</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>352.4932770474055</v>
       </c>
       <c r="G41" t="n">
-        <v>347.6031949101294</v>
+        <v>407.8354119480459</v>
       </c>
       <c r="H41" t="n">
         <v>308.5965933537339</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.3748212697451</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.02020383945649</v>
@@ -25681,19 +25681,19 @@
         <v>137.6010409571238</v>
       </c>
       <c r="T41" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U41" t="n">
         <v>253.0995449890409</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>278.4535241656002</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>347.880363519022</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25715,7 +25715,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>82.02948921322431</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -25724,7 +25724,7 @@
         <v>118.2194552824311</v>
       </c>
       <c r="H42" t="n">
-        <v>21.00344732440224</v>
+        <v>81.23566436231876</v>
       </c>
       <c r="I42" t="n">
         <v>42.6625686604325</v>
@@ -25760,19 +25760,19 @@
         <v>61.4658089258543</v>
       </c>
       <c r="T42" t="n">
-        <v>172.6352739258752</v>
+        <v>112.4030568879587</v>
       </c>
       <c r="U42" t="n">
-        <v>147.6882050827003</v>
+        <v>207.9204221206168</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>134.3614701064916</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>323.6165691730824</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>316.3705174008982</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25879,16 +25879,16 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>407.7870063959562</v>
+        <v>407.8354119480459</v>
       </c>
       <c r="H44" t="n">
-        <v>308.100859993395</v>
+        <v>308.5965933537339</v>
       </c>
       <c r="I44" t="n">
-        <v>88.98974926106413</v>
+        <v>90.85590430800323</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>16.19493633782723</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>20.02695022094687</v>
+        <v>4.787986801539972</v>
       </c>
       <c r="S44" t="n">
-        <v>136.4979994388792</v>
+        <v>137.6010409571238</v>
       </c>
       <c r="T44" t="n">
-        <v>215.8194542832471</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0956725448737</v>
+        <v>253.0995449890409</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>278.4535241656002</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>347.880363519022</v>
       </c>
       <c r="Y44" t="n">
-        <v>319.6525729074044</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77.40514201535127</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>76.27445905430825</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
@@ -25958,16 +25958,16 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.1935560287823</v>
+        <v>57.98723824451459</v>
       </c>
       <c r="H45" t="n">
-        <v>80.98553209681624</v>
+        <v>81.23566436231876</v>
       </c>
       <c r="I45" t="n">
-        <v>41.77086190103435</v>
+        <v>42.6625686604325</v>
       </c>
       <c r="J45" t="n">
-        <v>19.55383367513983</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,31 +25988,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.016763204283905</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.36213537772845</v>
+        <v>54.97016096830681</v>
       </c>
       <c r="S45" t="n">
-        <v>121.2169586865669</v>
+        <v>121.6980259637708</v>
       </c>
       <c r="T45" t="n">
-        <v>172.5308817587558</v>
+        <v>172.6352739258752</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9187182223504</v>
+        <v>186.1914107463836</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>160.0823845747271</v>
       </c>
       <c r="W45" t="n">
-        <v>163.6293332333246</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>104.6478456740474</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26037,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0134432597343</v>
+        <v>166.0351563239811</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9620149865326</v>
+        <v>149.155063866836</v>
       </c>
       <c r="I46" t="n">
-        <v>114.9807911383581</v>
+        <v>115.6337621977075</v>
       </c>
       <c r="J46" t="n">
-        <v>43.09146773731257</v>
+        <v>44.62658137956165</v>
       </c>
       <c r="K46" t="n">
-        <v>19.02101870911098</v>
+        <v>21.54368199160336</v>
       </c>
       <c r="L46" t="n">
-        <v>4.705235536654058</v>
+        <v>7.93337601567444</v>
       </c>
       <c r="M46" t="n">
-        <v>2.821734424217809</v>
+        <v>6.225355940650999</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.9183492353166116</v>
       </c>
       <c r="O46" t="n">
-        <v>8.759582416757302</v>
+        <v>14.18512072001893</v>
       </c>
       <c r="P46" t="n">
-        <v>22.02716049974647</v>
+        <v>24.6532569246509</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.74749007900679</v>
+        <v>53.56566312243694</v>
       </c>
       <c r="R46" t="n">
-        <v>97.5691183503379</v>
+        <v>98.5454166754715</v>
       </c>
       <c r="S46" t="n">
-        <v>191.0622831140156</v>
+        <v>191.4406826063894</v>
       </c>
       <c r="T46" t="n">
-        <v>230.9773799693311</v>
+        <v>231.0701539711129</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5539636531464</v>
+        <v>282.5551480021053</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>202252.6945213272</v>
+        <v>216435.0457134654</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>253489.5449513086</v>
+        <v>253489.5449513087</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>253489.5449513085</v>
+        <v>253489.5449513086</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265209.5163625058</v>
+        <v>253489.5449513086</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>40279.70042384871</v>
       </c>
       <c r="D2" t="n">
-        <v>40279.70042384871</v>
+        <v>40279.70042384873</v>
       </c>
       <c r="E2" t="n">
-        <v>46127.80752240792</v>
+        <v>49362.37884693066</v>
       </c>
       <c r="F2" t="n">
         <v>49362.37884693066</v>
@@ -26331,13 +26331,13 @@
         <v>54027.47038450292</v>
       </c>
       <c r="H2" t="n">
-        <v>54027.47038450291</v>
+        <v>54027.47038450293</v>
       </c>
       <c r="I2" t="n">
-        <v>57813.40498889492</v>
+        <v>57813.40498889493</v>
       </c>
       <c r="J2" t="n">
-        <v>57813.40498889491</v>
+        <v>57813.40498889493</v>
       </c>
       <c r="K2" t="n">
         <v>57813.40498889494</v>
@@ -26349,13 +26349,13 @@
         <v>57813.40498889494</v>
       </c>
       <c r="N2" t="n">
-        <v>57813.40498889492</v>
+        <v>57813.40498889494</v>
       </c>
       <c r="O2" t="n">
-        <v>57813.40498889492</v>
+        <v>57813.40498889493</v>
       </c>
       <c r="P2" t="n">
-        <v>60486.38092478201</v>
+        <v>57813.40498889493</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>31255.23061840772</v>
+        <v>47743.51979110527</v>
       </c>
       <c r="F3" t="n">
-        <v>16141.98864614653</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23377.91595581661</v>
+        <v>23377.91595581667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16397.59605189487</v>
+        <v>16397.59605189482</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3503.056294575703</v>
+        <v>6270.602476237307</v>
       </c>
       <c r="N3" t="n">
-        <v>2720.047766632294</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3956.521911595099</v>
+        <v>3956.521911595112</v>
       </c>
       <c r="P3" t="n">
-        <v>11002.12804796467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.575185361841015</v>
+        <v>16.59184509935593</v>
       </c>
       <c r="F4" t="n">
-        <v>16.59184509935595</v>
+        <v>16.59184509935593</v>
       </c>
       <c r="G4" t="n">
         <v>30.14610431924631</v>
@@ -26438,28 +26438,28 @@
         <v>30.14610431924631</v>
       </c>
       <c r="I4" t="n">
-        <v>43.64462950941391</v>
+        <v>43.64462950941389</v>
       </c>
       <c r="J4" t="n">
-        <v>43.64462950941392</v>
+        <v>43.6446295094139</v>
       </c>
       <c r="K4" t="n">
         <v>43.64462950941392</v>
       </c>
       <c r="L4" t="n">
+        <v>43.64462950941393</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43.64462950941393</v>
+      </c>
+      <c r="N4" t="n">
         <v>43.64462950941392</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43.64462950941392</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43.64462950941393</v>
       </c>
       <c r="O4" t="n">
         <v>43.64462950941392</v>
       </c>
       <c r="P4" t="n">
-        <v>52.89093975185295</v>
+        <v>43.64462950941392</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>38159.46666611726</v>
       </c>
       <c r="E5" t="n">
-        <v>6120.741962424101</v>
+        <v>7153.387061545125</v>
       </c>
       <c r="F5" t="n">
-        <v>7153.387061545128</v>
+        <v>7153.387061545125</v>
       </c>
       <c r="G5" t="n">
         <v>8682.13936746453</v>
@@ -26511,7 +26511,7 @@
         <v>10146.18778279355</v>
       </c>
       <c r="P5" t="n">
-        <v>11177.25252261976</v>
+        <v>10146.18778279355</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-198199.2907256289</v>
+        <v>-199692.7686571482</v>
       </c>
       <c r="C6" t="n">
-        <v>2120.233757731447</v>
+        <v>626.755826212107</v>
       </c>
       <c r="D6" t="n">
-        <v>2120.233757731447</v>
+        <v>626.7558262121215</v>
       </c>
       <c r="E6" t="n">
-        <v>8743.259756214262</v>
+        <v>-6974.731025237805</v>
       </c>
       <c r="F6" t="n">
-        <v>26050.41129413965</v>
+        <v>40768.78876586747</v>
       </c>
       <c r="G6" t="n">
-        <v>21937.26895690253</v>
+        <v>20549.54310200354</v>
       </c>
       <c r="H6" t="n">
-        <v>45315.18491271914</v>
+        <v>43927.45905782023</v>
       </c>
       <c r="I6" t="n">
-        <v>31225.97652469709</v>
+        <v>29867.37324367816</v>
       </c>
       <c r="J6" t="n">
-        <v>47623.57257659194</v>
+        <v>46264.96929557297</v>
       </c>
       <c r="K6" t="n">
-        <v>47623.57257659197</v>
+        <v>46264.96929557298</v>
       </c>
       <c r="L6" t="n">
-        <v>47623.57257659198</v>
+        <v>46264.96929557298</v>
       </c>
       <c r="M6" t="n">
-        <v>44120.51628201627</v>
+        <v>39994.36681933567</v>
       </c>
       <c r="N6" t="n">
-        <v>44903.52480995966</v>
+        <v>46264.96929557298</v>
       </c>
       <c r="O6" t="n">
-        <v>43667.05066499686</v>
+        <v>42308.44738397786</v>
       </c>
       <c r="P6" t="n">
-        <v>38254.10941444572</v>
+        <v>46264.96929557297</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>207.8837920237277</v>
       </c>
       <c r="E3" t="n">
-        <v>241.5631843889537</v>
+        <v>257.9589631239192</v>
       </c>
       <c r="F3" t="n">
-        <v>257.9589631239193</v>
+        <v>257.9589631239192</v>
       </c>
       <c r="G3" t="n">
         <v>282.231662979618</v>
@@ -26758,10 +26758,10 @@
         <v>282.231662979618</v>
       </c>
       <c r="I3" t="n">
-        <v>297.4343571967077</v>
+        <v>297.4343571967076</v>
       </c>
       <c r="J3" t="n">
-        <v>297.4343571967077</v>
+        <v>297.4343571967076</v>
       </c>
       <c r="K3" t="n">
         <v>297.4343571967077</v>
@@ -26779,7 +26779,7 @@
         <v>297.4343571967077</v>
       </c>
       <c r="P3" t="n">
-        <v>309.4752382790265</v>
+        <v>297.4343571967077</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="F4" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="G4" t="n">
         <v>41.60343938336936</v>
       </c>
       <c r="H4" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="I4" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="J4" t="n">
         <v>60.23221703791651</v>
@@ -26822,16 +26822,16 @@
         <v>60.23221703791651</v>
       </c>
       <c r="M4" t="n">
+        <v>60.23221703791651</v>
+      </c>
+      <c r="N4" t="n">
         <v>60.2322170379165</v>
-      </c>
-      <c r="N4" t="n">
-        <v>60.23221703791652</v>
       </c>
       <c r="O4" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="P4" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791651</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>33.67939236522599</v>
+        <v>50.07517110019151</v>
       </c>
       <c r="F3" t="n">
-        <v>16.39577873496557</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>24.2726998556987</v>
+        <v>24.27269985569876</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.20269421708969</v>
+        <v>15.20269421708963</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.04088108231889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="F4" t="n">
-        <v>11.10554478122987</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44091199120345</v>
+        <v>16.44091199120348</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62877765454714</v>
+        <v>18.6287776545471</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.05698261093603</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N4" t="n">
-        <v>11.10554478122989</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16.44091199120344</v>
+        <v>16.44091199120349</v>
       </c>
       <c r="P4" t="n">
-        <v>12.64101204328394</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N4" t="n">
-        <v>11.10554478122987</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16.44091199120345</v>
+        <v>16.44091199120348</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H2" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I2" t="n">
         <v>32.21885383716488</v>
@@ -31150,13 +31150,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R3" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S3" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T3" t="n">
         <v>1.802313253488733</v>
@@ -31211,7 +31211,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K4" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L4" t="n">
         <v>55.73330384845972</v>
@@ -31226,7 +31226,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P4" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q4" t="n">
         <v>31.39045259558288</v>
@@ -31235,7 +31235,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S4" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T4" t="n">
         <v>1.601727577887737</v>
@@ -31518,7 +31518,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H8" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I8" t="n">
         <v>32.21885383716488</v>
@@ -31624,13 +31624,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R9" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S9" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T9" t="n">
         <v>1.802313253488733</v>
@@ -31685,7 +31685,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K10" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L10" t="n">
         <v>55.73330384845972</v>
@@ -31700,7 +31700,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P10" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q10" t="n">
         <v>31.39045259558288</v>
@@ -31709,7 +31709,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S10" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T10" t="n">
         <v>1.601727577887737</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9711082789505668</v>
+        <v>1.037020957282087</v>
       </c>
       <c r="H11" t="n">
-        <v>9.945362661802493</v>
+        <v>10.62039087876517</v>
       </c>
       <c r="I11" t="n">
-        <v>37.43865192424176</v>
+        <v>39.97975045561768</v>
       </c>
       <c r="J11" t="n">
-        <v>82.42160129058074</v>
+        <v>88.01585747312056</v>
       </c>
       <c r="K11" t="n">
-        <v>123.5286147385583</v>
+        <v>131.9129545948713</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>163.649684716293</v>
       </c>
       <c r="M11" t="n">
-        <v>163.7820342086633</v>
+        <v>174.8875789898931</v>
       </c>
       <c r="N11" t="n">
-        <v>163.1754739487201</v>
+        <v>174.28101872995</v>
       </c>
       <c r="O11" t="n">
-        <v>163.6208200350324</v>
+        <v>174.7263648162623</v>
       </c>
       <c r="P11" t="n">
-        <v>139.6465843984403</v>
+        <v>149.1249099333608</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.8687691585231</v>
+        <v>111.986596900696</v>
       </c>
       <c r="R11" t="n">
-        <v>61.0013804276286</v>
+        <v>65.14176770787093</v>
       </c>
       <c r="S11" t="n">
-        <v>22.12912990658606</v>
+        <v>23.63111506406557</v>
       </c>
       <c r="T11" t="n">
-        <v>4.251026491106108</v>
+        <v>4.539559240502336</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07768866231604533</v>
+        <v>0.0829616765825669</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5195887362328437</v>
+        <v>0.5548551282288073</v>
       </c>
       <c r="H12" t="n">
-        <v>5.018133320985624</v>
+        <v>5.358732422630851</v>
       </c>
       <c r="I12" t="n">
-        <v>17.88934903257817</v>
+        <v>19.10356472191289</v>
       </c>
       <c r="J12" t="n">
-        <v>49.08974108417408</v>
+        <v>52.42164174200325</v>
       </c>
       <c r="K12" t="n">
-        <v>83.90218641177461</v>
+        <v>89.59693533333333</v>
       </c>
       <c r="L12" t="n">
-        <v>104.1173294678543</v>
+        <v>115.2228742490841</v>
       </c>
       <c r="M12" t="n">
-        <v>106.444104660248</v>
+        <v>117.5496494414778</v>
       </c>
       <c r="N12" t="n">
-        <v>86.72584175023238</v>
+        <v>110.5346402463325</v>
       </c>
       <c r="O12" t="n">
-        <v>106.7445414998249</v>
+        <v>116.8334185076339</v>
       </c>
       <c r="P12" t="n">
-        <v>99.21865964081383</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.32504640052932</v>
+        <v>70.8267704033825</v>
       </c>
       <c r="R12" t="n">
-        <v>32.260079605755</v>
+        <v>34.44968945266228</v>
       </c>
       <c r="S12" t="n">
-        <v>9.651132885728472</v>
+        <v>10.30619064933771</v>
       </c>
       <c r="T12" t="n">
-        <v>2.094307230692909</v>
+        <v>2.236455538781903</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03418346948900289</v>
+        <v>0.03650362685715839</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4356057423407361</v>
+        <v>0.4651719007152641</v>
       </c>
       <c r="H13" t="n">
-        <v>3.872931054629456</v>
+        <v>4.135801080904805</v>
       </c>
       <c r="I13" t="n">
-        <v>13.09985268784687</v>
+        <v>13.98898770514631</v>
       </c>
       <c r="J13" t="n">
-        <v>30.79732598349004</v>
+        <v>32.88765338056917</v>
       </c>
       <c r="K13" t="n">
-        <v>50.60946715558732</v>
+        <v>54.04451719219158</v>
       </c>
       <c r="L13" t="n">
-        <v>64.76269372945816</v>
+        <v>69.15837512997663</v>
       </c>
       <c r="M13" t="n">
-        <v>68.28318013801191</v>
+        <v>72.91780985484816</v>
       </c>
       <c r="N13" t="n">
-        <v>66.65955873474195</v>
+        <v>71.1839873158186</v>
       </c>
       <c r="O13" t="n">
-        <v>61.57089165376151</v>
+        <v>65.74993374837209</v>
       </c>
       <c r="P13" t="n">
-        <v>52.68453451001046</v>
+        <v>56.26042697378065</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.476040842732</v>
+        <v>38.9518034317118</v>
       </c>
       <c r="R13" t="n">
-        <v>19.58641819652073</v>
+        <v>20.91582019034269</v>
       </c>
       <c r="S13" t="n">
-        <v>7.591420073338099</v>
+        <v>8.106677578828736</v>
       </c>
       <c r="T13" t="n">
-        <v>1.861224535455872</v>
+        <v>1.987552666692491</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02376031321858563</v>
+        <v>0.02537301276628716</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>39.97975045561768</v>
       </c>
       <c r="J14" t="n">
-        <v>88.01585747312059</v>
+        <v>88.01585747312056</v>
       </c>
       <c r="K14" t="n">
         <v>131.9129545948713</v>
@@ -32007,7 +32007,7 @@
         <v>163.649684716293</v>
       </c>
       <c r="M14" t="n">
-        <v>174.8875789898932</v>
+        <v>174.8875789898931</v>
       </c>
       <c r="N14" t="n">
         <v>174.28101872995</v>
@@ -32022,16 +32022,16 @@
         <v>111.986596900696</v>
       </c>
       <c r="R14" t="n">
-        <v>65.14176770787094</v>
+        <v>65.14176770787093</v>
       </c>
       <c r="S14" t="n">
-        <v>23.63111506406558</v>
+        <v>23.63111506406557</v>
       </c>
       <c r="T14" t="n">
-        <v>4.539559240502337</v>
+        <v>4.539559240502336</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08296167658256692</v>
+        <v>0.0829616765825669</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5548551282288074</v>
+        <v>0.5548551282288073</v>
       </c>
       <c r="H15" t="n">
-        <v>5.358732422630852</v>
+        <v>5.358732422630851</v>
       </c>
       <c r="I15" t="n">
         <v>19.10356472191289</v>
       </c>
       <c r="J15" t="n">
-        <v>52.42164174200326</v>
+        <v>52.42164174200325</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333336</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>115.2228742490841</v>
       </c>
       <c r="M15" t="n">
-        <v>97.66335274690751</v>
+        <v>117.5496494414778</v>
       </c>
       <c r="N15" t="n">
-        <v>110.5346402463326</v>
+        <v>110.5346402463325</v>
       </c>
       <c r="O15" t="n">
-        <v>117.8500862810548</v>
+        <v>116.8334185076339</v>
       </c>
       <c r="P15" t="n">
-        <v>105.9529937404641</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.82677040338253</v>
+        <v>70.8267704033825</v>
       </c>
       <c r="R15" t="n">
-        <v>34.44968945266229</v>
+        <v>34.44968945266228</v>
       </c>
       <c r="S15" t="n">
         <v>10.30619064933771</v>
@@ -32110,7 +32110,7 @@
         <v>2.236455538781903</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0365036268571584</v>
+        <v>0.03650362685715839</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4651719007152642</v>
+        <v>0.4651719007152641</v>
       </c>
       <c r="H16" t="n">
-        <v>4.135801080904806</v>
+        <v>4.135801080904805</v>
       </c>
       <c r="I16" t="n">
         <v>13.98898770514631</v>
       </c>
       <c r="J16" t="n">
-        <v>32.88765338056918</v>
+        <v>32.88765338056917</v>
       </c>
       <c r="K16" t="n">
-        <v>54.04451719219159</v>
+        <v>54.04451719219158</v>
       </c>
       <c r="L16" t="n">
-        <v>69.15837512997665</v>
+        <v>69.15837512997663</v>
       </c>
       <c r="M16" t="n">
-        <v>72.91780985484817</v>
+        <v>72.91780985484816</v>
       </c>
       <c r="N16" t="n">
-        <v>71.18398731581861</v>
+        <v>71.1839873158186</v>
       </c>
       <c r="O16" t="n">
-        <v>65.7499337483721</v>
+        <v>65.74993374837209</v>
       </c>
       <c r="P16" t="n">
-        <v>56.26042697378066</v>
+        <v>56.26042697378065</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.95180343171181</v>
+        <v>38.9518034317118</v>
       </c>
       <c r="R16" t="n">
         <v>20.91582019034269</v>
       </c>
       <c r="S16" t="n">
-        <v>8.106677578828737</v>
+        <v>8.106677578828736</v>
       </c>
       <c r="T16" t="n">
-        <v>1.987552666692492</v>
+        <v>1.987552666692491</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02537301276628717</v>
+        <v>0.02537301276628716</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,10 +32320,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>131.6637862402876</v>
+        <v>101.1435422892189</v>
       </c>
       <c r="M18" t="n">
-        <v>132.3096143868885</v>
+        <v>133.9905614326813</v>
       </c>
       <c r="N18" t="n">
         <v>126.975552237536</v>
@@ -32332,7 +32332,7 @@
         <v>134.2909982722583</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>115.9226617245906</v>
       </c>
       <c r="Q18" t="n">
         <v>77.49122942791323</v>
@@ -32566,10 +32566,10 @@
         <v>126.975552237536</v>
       </c>
       <c r="O21" t="n">
-        <v>95.34011290055504</v>
+        <v>124.1794098058311</v>
       </c>
       <c r="P21" t="n">
-        <v>115.9226617245906</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>77.49122942791323</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.195716008830985</v>
+        <v>1.195716008830984</v>
       </c>
       <c r="H23" t="n">
         <v>12.24562657544032</v>
       </c>
       <c r="I23" t="n">
-        <v>46.09784143045658</v>
+        <v>46.09784143045657</v>
       </c>
       <c r="J23" t="n">
         <v>101.4849016045189</v>
@@ -32715,10 +32715,10 @@
         <v>152.0995602583345</v>
       </c>
       <c r="L23" t="n">
-        <v>188.6929540635958</v>
+        <v>188.6929540635957</v>
       </c>
       <c r="M23" t="n">
-        <v>209.9572686356438</v>
+        <v>209.9572686356437</v>
       </c>
       <c r="N23" t="n">
         <v>209.3507083757006</v>
@@ -32727,22 +32727,22 @@
         <v>201.4646956829217</v>
       </c>
       <c r="P23" t="n">
-        <v>171.9454567149068</v>
+        <v>171.9454567149067</v>
       </c>
       <c r="Q23" t="n">
         <v>129.1238771486471</v>
       </c>
       <c r="R23" t="n">
-        <v>75.1103957397294</v>
+        <v>75.11039573972938</v>
       </c>
       <c r="S23" t="n">
         <v>27.24737855123609</v>
       </c>
       <c r="T23" t="n">
-        <v>5.234246828657638</v>
+        <v>5.234246828657636</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09565728070647875</v>
+        <v>0.09565728070647873</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.639764466423107</v>
+        <v>0.6397644664231069</v>
       </c>
       <c r="H24" t="n">
-        <v>6.178777873086324</v>
+        <v>6.178777873086323</v>
       </c>
       <c r="I24" t="n">
         <v>22.0269783395675</v>
       </c>
       <c r="J24" t="n">
-        <v>60.44371215447435</v>
+        <v>60.44371215447433</v>
       </c>
       <c r="K24" t="n">
-        <v>103.3079314048225</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9102627643681</v>
+        <v>138.910262764368</v>
       </c>
       <c r="M24" t="n">
-        <v>113.4769654475382</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N24" t="n">
-        <v>145.6043298920832</v>
+        <v>145.6043298920831</v>
       </c>
       <c r="O24" t="n">
         <v>152.2162412721679</v>
       </c>
       <c r="P24" t="n">
-        <v>122.1669532417949</v>
+        <v>96.7355756735939</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.66537294200926</v>
+        <v>81.66537294200923</v>
       </c>
       <c r="R24" t="n">
-        <v>39.72151660826977</v>
+        <v>39.72151660826976</v>
       </c>
       <c r="S24" t="n">
         <v>11.88334436535902</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5363570375678334</v>
+        <v>0.5363570375678333</v>
       </c>
       <c r="H25" t="n">
-        <v>4.768701661284922</v>
+        <v>4.768701661284921</v>
       </c>
       <c r="I25" t="n">
-        <v>16.1297189115854</v>
+        <v>16.12971891158539</v>
       </c>
       <c r="J25" t="n">
-        <v>37.92044255604582</v>
+        <v>37.92044255604581</v>
       </c>
       <c r="K25" t="n">
-        <v>62.31493581924463</v>
+        <v>62.31493581924462</v>
       </c>
       <c r="L25" t="n">
-        <v>79.74166356713044</v>
+        <v>79.74166356713043</v>
       </c>
       <c r="M25" t="n">
-        <v>84.07640362529227</v>
+        <v>84.07640362529226</v>
       </c>
       <c r="N25" t="n">
-        <v>82.07725466708496</v>
+        <v>82.07725466708494</v>
       </c>
       <c r="O25" t="n">
-        <v>75.81162927367888</v>
+        <v>75.81162927367886</v>
       </c>
       <c r="P25" t="n">
-        <v>64.86994570729503</v>
+        <v>64.86994570729502</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.91258793670286</v>
+        <v>44.91258793670285</v>
       </c>
       <c r="R25" t="n">
         <v>24.1165627982773</v>
       </c>
       <c r="S25" t="n">
-        <v>9.347240372886693</v>
+        <v>9.347240372886692</v>
       </c>
       <c r="T25" t="n">
-        <v>2.291707342335288</v>
+        <v>2.291707342335287</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02925583841279095</v>
+        <v>0.02925583841279094</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.195716008830985</v>
+        <v>1.195716008830984</v>
       </c>
       <c r="H26" t="n">
         <v>12.24562657544032</v>
       </c>
       <c r="I26" t="n">
-        <v>46.09784143045658</v>
+        <v>46.09784143045657</v>
       </c>
       <c r="J26" t="n">
         <v>101.4849016045189</v>
@@ -32952,10 +32952,10 @@
         <v>152.0995602583345</v>
       </c>
       <c r="L26" t="n">
-        <v>188.6929540635958</v>
+        <v>188.6929540635957</v>
       </c>
       <c r="M26" t="n">
-        <v>209.9572686356438</v>
+        <v>209.9572686356437</v>
       </c>
       <c r="N26" t="n">
         <v>209.3507083757006</v>
@@ -32964,22 +32964,22 @@
         <v>201.4646956829217</v>
       </c>
       <c r="P26" t="n">
-        <v>171.9454567149068</v>
+        <v>171.9454567149067</v>
       </c>
       <c r="Q26" t="n">
         <v>129.1238771486471</v>
       </c>
       <c r="R26" t="n">
-        <v>75.1103957397294</v>
+        <v>75.11039573972938</v>
       </c>
       <c r="S26" t="n">
         <v>27.24737855123609</v>
       </c>
       <c r="T26" t="n">
-        <v>5.234246828657638</v>
+        <v>5.234246828657636</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09565728070647875</v>
+        <v>0.09565728070647873</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.639764466423107</v>
+        <v>0.6397644664231069</v>
       </c>
       <c r="H27" t="n">
-        <v>6.178777873086324</v>
+        <v>6.178777873086323</v>
       </c>
       <c r="I27" t="n">
         <v>22.0269783395675</v>
       </c>
       <c r="J27" t="n">
-        <v>60.44371215447435</v>
+        <v>60.44371215447433</v>
       </c>
       <c r="K27" t="n">
         <v>103.3079314048225</v>
       </c>
       <c r="L27" t="n">
-        <v>138.9102627643681</v>
+        <v>138.910262764368</v>
       </c>
       <c r="M27" t="n">
-        <v>152.6193390872284</v>
+        <v>113.4769654475384</v>
       </c>
       <c r="N27" t="n">
-        <v>106.461956252393</v>
+        <v>145.6043298920832</v>
       </c>
       <c r="O27" t="n">
         <v>152.2162412721679</v>
@@ -33046,10 +33046,10 @@
         <v>122.1669532417949</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66537294200926</v>
+        <v>81.66537294200923</v>
       </c>
       <c r="R27" t="n">
-        <v>39.72151660826977</v>
+        <v>39.72151660826976</v>
       </c>
       <c r="S27" t="n">
         <v>11.88334436535902</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5363570375678334</v>
+        <v>0.5363570375678333</v>
       </c>
       <c r="H28" t="n">
-        <v>4.768701661284922</v>
+        <v>4.768701661284921</v>
       </c>
       <c r="I28" t="n">
-        <v>16.1297189115854</v>
+        <v>16.12971891158539</v>
       </c>
       <c r="J28" t="n">
-        <v>37.92044255604582</v>
+        <v>37.92044255604581</v>
       </c>
       <c r="K28" t="n">
-        <v>62.31493581924463</v>
+        <v>62.31493581924462</v>
       </c>
       <c r="L28" t="n">
-        <v>79.74166356713044</v>
+        <v>79.74166356713043</v>
       </c>
       <c r="M28" t="n">
-        <v>84.07640362529227</v>
+        <v>84.07640362529226</v>
       </c>
       <c r="N28" t="n">
-        <v>82.07725466708496</v>
+        <v>82.07725466708494</v>
       </c>
       <c r="O28" t="n">
-        <v>75.81162927367888</v>
+        <v>75.81162927367886</v>
       </c>
       <c r="P28" t="n">
-        <v>64.86994570729503</v>
+        <v>64.86994570729502</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.91258793670286</v>
+        <v>44.91258793670285</v>
       </c>
       <c r="R28" t="n">
         <v>24.1165627982773</v>
       </c>
       <c r="S28" t="n">
-        <v>9.347240372886693</v>
+        <v>9.347240372886692</v>
       </c>
       <c r="T28" t="n">
-        <v>2.291707342335288</v>
+        <v>2.291707342335287</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02925583841279095</v>
+        <v>0.02925583841279094</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,13 +33265,13 @@
         <v>60.44371215447435</v>
       </c>
       <c r="K30" t="n">
-        <v>103.3079314048225</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>138.9102627643681</v>
+        <v>113.4788851961671</v>
       </c>
       <c r="M30" t="n">
-        <v>113.4769654475383</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N30" t="n">
         <v>145.6043298920832</v>
@@ -33508,16 +33508,16 @@
         <v>138.9102627643681</v>
       </c>
       <c r="M33" t="n">
-        <v>113.4769654475383</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N33" t="n">
-        <v>145.6043298920832</v>
+        <v>141.5455446748733</v>
       </c>
       <c r="O33" t="n">
         <v>152.2162412721679</v>
       </c>
       <c r="P33" t="n">
-        <v>122.1669532417949</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>81.66537294200926</v>
@@ -33748,13 +33748,13 @@
         <v>152.6193390872284</v>
       </c>
       <c r="N36" t="n">
-        <v>145.6043298920832</v>
+        <v>141.5455446748733</v>
       </c>
       <c r="O36" t="n">
-        <v>113.0738676324777</v>
+        <v>152.2162412721679</v>
       </c>
       <c r="P36" t="n">
-        <v>122.1669532417949</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>81.66537294200926</v>
@@ -33976,10 +33976,10 @@
         <v>60.44371215447435</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>99.24914618761258</v>
       </c>
       <c r="L39" t="n">
-        <v>113.478885196167</v>
+        <v>138.9102627643681</v>
       </c>
       <c r="M39" t="n">
         <v>152.6193390872284</v>
@@ -33991,7 +33991,7 @@
         <v>152.2162412721679</v>
       </c>
       <c r="P39" t="n">
-        <v>122.1669532417949</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>81.66537294200926</v>
@@ -34213,16 +34213,16 @@
         <v>60.44371215447435</v>
       </c>
       <c r="K42" t="n">
-        <v>103.3079314048225</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>138.9102627643681</v>
       </c>
       <c r="M42" t="n">
-        <v>152.6193390872284</v>
+        <v>127.1879615190274</v>
       </c>
       <c r="N42" t="n">
-        <v>106.461956252393</v>
+        <v>145.6043298920832</v>
       </c>
       <c r="O42" t="n">
         <v>152.2162412721679</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.244121560920709</v>
+        <v>1.195716008830985</v>
       </c>
       <c r="H44" t="n">
-        <v>12.74135993577921</v>
+        <v>12.24562657544032</v>
       </c>
       <c r="I44" t="n">
-        <v>47.96399647739567</v>
+        <v>46.09784143045658</v>
       </c>
       <c r="J44" t="n">
-        <v>105.5932623311941</v>
+        <v>101.4849016045189</v>
       </c>
       <c r="K44" t="n">
-        <v>158.2569280049677</v>
+        <v>152.0995602583345</v>
       </c>
       <c r="L44" t="n">
-        <v>196.3317132249949</v>
+        <v>188.6929540635958</v>
       </c>
       <c r="M44" t="n">
-        <v>218.4568600340186</v>
+        <v>209.9572686356438</v>
       </c>
       <c r="N44" t="n">
-        <v>221.9917204189846</v>
+        <v>209.3507083757006</v>
       </c>
       <c r="O44" t="n">
-        <v>209.6204866475792</v>
+        <v>201.4646956829217</v>
       </c>
       <c r="P44" t="n">
-        <v>178.9062356123492</v>
+        <v>171.9454567149068</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.3511322118763</v>
+        <v>129.1238771486471</v>
       </c>
       <c r="R44" t="n">
-        <v>78.15105100118554</v>
+        <v>75.1103957397294</v>
       </c>
       <c r="S44" t="n">
-        <v>28.35042006948068</v>
+        <v>27.24737855123609</v>
       </c>
       <c r="T44" t="n">
-        <v>5.446142132930405</v>
+        <v>5.234246828657638</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09952972487365669</v>
+        <v>0.09565728070647875</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6656637200718685</v>
+        <v>0.639764466423107</v>
       </c>
       <c r="H45" t="n">
-        <v>6.428910138588836</v>
+        <v>6.178777873086324</v>
       </c>
       <c r="I45" t="n">
-        <v>22.91868509896565</v>
+        <v>22.0269783395675</v>
       </c>
       <c r="J45" t="n">
-        <v>62.89062365819351</v>
+        <v>60.44371215447435</v>
       </c>
       <c r="K45" t="n">
-        <v>107.4900929030087</v>
+        <v>103.3079314048225</v>
       </c>
       <c r="L45" t="n">
-        <v>144.5336950094643</v>
+        <v>138.9102627643681</v>
       </c>
       <c r="M45" t="n">
-        <v>165.2603511305124</v>
+        <v>113.4769654475383</v>
       </c>
       <c r="N45" t="n">
-        <v>122.9609378791785</v>
+        <v>145.6043298920832</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3783325558713</v>
+        <v>152.2162412721679</v>
       </c>
       <c r="P45" t="n">
-        <v>127.1125747565307</v>
+        <v>122.1669532417949</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.97138995163009</v>
+        <v>81.66537294200926</v>
       </c>
       <c r="R45" t="n">
-        <v>41.32954219884813</v>
+        <v>39.72151660826977</v>
       </c>
       <c r="S45" t="n">
-        <v>12.36441164256299</v>
+        <v>11.88334436535902</v>
       </c>
       <c r="T45" t="n">
-        <v>2.683091924324767</v>
+        <v>2.578699757205417</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04379366579420189</v>
+        <v>0.042089767527836</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.558070101814638</v>
+        <v>0.5363570375678334</v>
       </c>
       <c r="H46" t="n">
-        <v>4.96175054158833</v>
+        <v>4.768701661284922</v>
       </c>
       <c r="I46" t="n">
-        <v>16.78268997093475</v>
+        <v>16.1297189115854</v>
       </c>
       <c r="J46" t="n">
-        <v>39.4555561982949</v>
+        <v>37.92044255604582</v>
       </c>
       <c r="K46" t="n">
-        <v>64.83759910173701</v>
+        <v>62.31493581924463</v>
       </c>
       <c r="L46" t="n">
-        <v>82.96980404615083</v>
+        <v>79.74166356713044</v>
       </c>
       <c r="M46" t="n">
-        <v>87.48002514172546</v>
+        <v>84.07640362529227</v>
       </c>
       <c r="N46" t="n">
-        <v>85.39994567132553</v>
+        <v>82.07725466708496</v>
       </c>
       <c r="O46" t="n">
-        <v>78.88067220921813</v>
+        <v>75.81162927367888</v>
       </c>
       <c r="P46" t="n">
-        <v>67.49604213219946</v>
+        <v>64.86994570729503</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.73076098013301</v>
+        <v>44.91258793670286</v>
       </c>
       <c r="R46" t="n">
-        <v>25.0928611234109</v>
+        <v>24.1165627982773</v>
       </c>
       <c r="S46" t="n">
-        <v>9.72563986526055</v>
+        <v>9.347240372886693</v>
       </c>
       <c r="T46" t="n">
-        <v>2.384481344117089</v>
+        <v>2.291707342335288</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03044018737170756</v>
+        <v>0.02925583841279095</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M11" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N11" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O11" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="M12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N12" t="n">
-        <v>1.353728896065716</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O12" t="n">
-        <v>14.05698261093605</v>
+        <v>24.14585961874504</v>
       </c>
       <c r="P12" t="n">
-        <v>12.13529482149917</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>10.40151498580133</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M14" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N14" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O14" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="M15" t="n">
-        <v>5.276230697595596</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N15" t="n">
-        <v>25.16252739216592</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O15" t="n">
-        <v>25.16252739216592</v>
+        <v>24.14585961874504</v>
       </c>
       <c r="P15" t="n">
-        <v>18.86962892114948</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>11.08319543230066</v>
+      </c>
+      <c r="M18" t="n">
         <v>41.60343938336936</v>
-      </c>
-      <c r="M18" t="n">
-        <v>39.92249233757664</v>
       </c>
       <c r="N18" t="n">
         <v>41.60343938336936</v>
@@ -35980,7 +35980,7 @@
         <v>41.60343938336936</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>28.83929690527599</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>25.80016456360303</v>
       </c>
       <c r="M20" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="N20" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="O20" t="n">
         <v>41.60343938336936</v>
@@ -36205,19 +36205,19 @@
         <v>8.430641420634529</v>
       </c>
       <c r="L21" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="M21" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="N21" t="n">
-        <v>41.60343938336936</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="O21" t="n">
-        <v>2.652554011666151</v>
+        <v>31.49185091694216</v>
       </c>
       <c r="P21" t="n">
-        <v>28.83929690527599</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>9.041157079097133</v>
+        <v>9.041157079097104</v>
       </c>
       <c r="L23" t="n">
-        <v>35.44478433310408</v>
+        <v>35.44478433310402</v>
       </c>
       <c r="M23" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="N23" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="O23" t="n">
-        <v>51.90085825882534</v>
+        <v>51.90085825882528</v>
       </c>
       <c r="P23" t="n">
-        <v>21.64400947398155</v>
+        <v>21.64400947398153</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>13.71099607148916</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>48.84991590744984</v>
+        <v>48.84991590744981</v>
       </c>
       <c r="M24" t="n">
-        <v>21.0898433982263</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="N24" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="O24" t="n">
-        <v>59.52868238327905</v>
+        <v>59.52868238327902</v>
       </c>
       <c r="P24" t="n">
-        <v>35.08358842248025</v>
+        <v>9.652210854279254</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>9.041157079097133</v>
+        <v>9.041157079097104</v>
       </c>
       <c r="L26" t="n">
-        <v>35.44478433310408</v>
+        <v>35.44478433310402</v>
       </c>
       <c r="M26" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791648</v>
       </c>
       <c r="N26" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="O26" t="n">
-        <v>51.90085825882534</v>
+        <v>51.90085825882528</v>
       </c>
       <c r="P26" t="n">
-        <v>21.64400947398155</v>
+        <v>21.64400947398153</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>13.71099607148916</v>
+        <v>13.71099607148915</v>
       </c>
       <c r="L27" t="n">
-        <v>48.84991590744984</v>
+        <v>48.84991590744981</v>
       </c>
       <c r="M27" t="n">
+        <v>21.08984339822645</v>
+      </c>
+      <c r="N27" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="N27" t="n">
-        <v>21.08984339822635</v>
-      </c>
       <c r="O27" t="n">
-        <v>59.52868238327905</v>
+        <v>59.52868238327902</v>
       </c>
       <c r="P27" t="n">
-        <v>35.08358842248025</v>
+        <v>35.08358842248022</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>13.71099607148916</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>48.84991590744984</v>
+        <v>23.41853833924884</v>
       </c>
       <c r="M30" t="n">
-        <v>21.08984339822635</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N30" t="n">
         <v>60.23221703791651</v>
@@ -37156,16 +37156,16 @@
         <v>48.84991590744984</v>
       </c>
       <c r="M33" t="n">
-        <v>21.08984339822635</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N33" t="n">
-        <v>60.23221703791651</v>
+        <v>56.1734318207066</v>
       </c>
       <c r="O33" t="n">
         <v>59.52868238327905</v>
       </c>
       <c r="P33" t="n">
-        <v>35.08358842248025</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>35.44478433310408</v>
       </c>
       <c r="M35" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N35" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O35" t="n">
         <v>51.90085825882534</v>
@@ -37393,16 +37393,16 @@
         <v>48.84991590744984</v>
       </c>
       <c r="M36" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N36" t="n">
-        <v>60.2322170379165</v>
+        <v>56.1734318207066</v>
       </c>
       <c r="O36" t="n">
-        <v>20.38630874358882</v>
+        <v>59.52868238327905</v>
       </c>
       <c r="P36" t="n">
-        <v>35.08358842248025</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>35.44478433310408</v>
       </c>
       <c r="M38" t="n">
-        <v>60.23221703791651</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="N38" t="n">
-        <v>60.23221703791652</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="O38" t="n">
         <v>51.90085825882534</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>9.652210854279225</v>
       </c>
       <c r="L39" t="n">
-        <v>23.41853833924882</v>
+        <v>48.84991590744984</v>
       </c>
       <c r="M39" t="n">
-        <v>60.23221703791652</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="N39" t="n">
-        <v>60.23221703791652</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="O39" t="n">
         <v>59.52868238327905</v>
       </c>
       <c r="P39" t="n">
-        <v>35.08358842248025</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>13.71099607148916</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>48.84991590744984</v>
       </c>
       <c r="M42" t="n">
+        <v>34.80083946971551</v>
+      </c>
+      <c r="N42" t="n">
         <v>60.23221703791651</v>
-      </c>
-      <c r="N42" t="n">
-        <v>21.08984339822635</v>
       </c>
       <c r="O42" t="n">
         <v>59.52868238327905</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>15.19852482573037</v>
+        <v>9.041157079097133</v>
       </c>
       <c r="L44" t="n">
-        <v>43.08354349450323</v>
+        <v>35.44478433310408</v>
       </c>
       <c r="M44" t="n">
-        <v>68.73180843629132</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N44" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O44" t="n">
-        <v>60.05664922348285</v>
+        <v>51.90085825882534</v>
       </c>
       <c r="P44" t="n">
-        <v>28.60478837142401</v>
+        <v>21.64400947398155</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>17.89315756967534</v>
+        <v>13.71099607148916</v>
       </c>
       <c r="L45" t="n">
-        <v>54.47334815254602</v>
+        <v>48.84991590744984</v>
       </c>
       <c r="M45" t="n">
-        <v>72.87322908120045</v>
+        <v>21.08984339822635</v>
       </c>
       <c r="N45" t="n">
-        <v>37.58882502501181</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O45" t="n">
-        <v>65.69077366698237</v>
+        <v>59.52868238327905</v>
       </c>
       <c r="P45" t="n">
-        <v>40.02920993721609</v>
+        <v>35.08358842248025</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.404341768923956</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
